--- a/Example11_9_Network_Model_Aug2021.xlsx
+++ b/Example11_9_Network_Model_Aug2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fddb03721652d6f8/Documents/UC Berkeley/Research and publications/Price responsive demand/price_responsive_demand/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_BB114438FE2C180ACD5CE799C304BF743F35A17B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B942FE24-316B-47D0-9F98-4E769D8BFAF1}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_BB114438FE2C180ACD5CE799C304BF743F35A17B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEA3746C-DA70-42AA-955F-3C89B255CDE3}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -471,6 +471,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -36790,15 +36794,15 @@
   <dimension ref="A1:J745"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C721" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A745" sqref="A745"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>90</v>
       </c>
@@ -36830,9 +36834,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="13">
-        <v>44409</v>
+        <v>51349</v>
       </c>
       <c r="B2" s="14">
         <v>1</v>
@@ -36862,9 +36866,9 @@
         <v>58.47495</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
-        <v>44409</v>
+        <v>51349</v>
       </c>
       <c r="B3" s="14">
         <v>2</v>
@@ -36894,9 +36898,9 @@
         <v>55.616889999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="13">
-        <v>44409</v>
+        <v>51349</v>
       </c>
       <c r="B4" s="14">
         <v>3</v>
@@ -36926,9 +36930,9 @@
         <v>54.715269999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="13">
-        <v>44409</v>
+        <v>51349</v>
       </c>
       <c r="B5" s="14">
         <v>4</v>
@@ -36958,9 +36962,9 @@
         <v>54.650570000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="13">
-        <v>44409</v>
+        <v>51349</v>
       </c>
       <c r="B6" s="14">
         <v>5</v>
@@ -36990,9 +36994,9 @@
         <v>56.381489999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="13">
-        <v>44409</v>
+        <v>51349</v>
       </c>
       <c r="B7" s="14">
         <v>6</v>
@@ -37022,9 +37026,9 @@
         <v>56.864690000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="13">
-        <v>44409</v>
+        <v>51349</v>
       </c>
       <c r="B8" s="14">
         <v>7</v>
@@ -37054,9 +37058,9 @@
         <v>54.825539999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="13">
-        <v>44409</v>
+        <v>51349</v>
       </c>
       <c r="B9" s="14">
         <v>8</v>
@@ -37086,9 +37090,9 @@
         <v>44.466389999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="13">
-        <v>44409</v>
+        <v>51349</v>
       </c>
       <c r="B10" s="14">
         <v>9</v>
@@ -37118,9 +37122,9 @@
         <v>37.177460000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="13">
-        <v>44409</v>
+        <v>51349</v>
       </c>
       <c r="B11" s="14">
         <v>10</v>
@@ -37150,9 +37154,9 @@
         <v>33.31</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="13">
-        <v>44409</v>
+        <v>51349</v>
       </c>
       <c r="B12" s="14">
         <v>11</v>
@@ -37182,9 +37186,9 @@
         <v>38.40842</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="13">
-        <v>44409</v>
+        <v>51349</v>
       </c>
       <c r="B13" s="14">
         <v>12</v>
@@ -37214,9 +37218,9 @@
         <v>42.141869999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="13">
-        <v>44409</v>
+        <v>51349</v>
       </c>
       <c r="B14" s="14">
         <v>13</v>
@@ -37246,9 +37250,9 @@
         <v>47.171939999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="13">
-        <v>44409</v>
+        <v>51349</v>
       </c>
       <c r="B15" s="14">
         <v>14</v>
@@ -37278,9 +37282,9 @@
         <v>50.174610000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="13">
-        <v>44409</v>
+        <v>51349</v>
       </c>
       <c r="B16" s="14">
         <v>15</v>
@@ -37310,9 +37314,9 @@
         <v>51.844990000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" s="13">
-        <v>44409</v>
+        <v>51349</v>
       </c>
       <c r="B17" s="14">
         <v>16</v>
@@ -37342,9 +37346,9 @@
         <v>55.902329999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A18" s="13">
-        <v>44409</v>
+        <v>51349</v>
       </c>
       <c r="B18" s="14">
         <v>17</v>
@@ -37374,9 +37378,9 @@
         <v>59.158940000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" s="13">
-        <v>44409</v>
+        <v>51349</v>
       </c>
       <c r="B19" s="14">
         <v>18</v>
@@ -37406,9 +37410,9 @@
         <v>76.015289999999993</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" s="13">
-        <v>44409</v>
+        <v>51349</v>
       </c>
       <c r="B20" s="14">
         <v>19</v>
@@ -37438,9 +37442,9 @@
         <v>85.846919999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A21" s="13">
-        <v>44409</v>
+        <v>51349</v>
       </c>
       <c r="B21" s="14">
         <v>20</v>
@@ -37470,9 +37474,9 @@
         <v>109.92270000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A22" s="13">
-        <v>44409</v>
+        <v>51349</v>
       </c>
       <c r="B22" s="14">
         <v>21</v>
@@ -37502,9 +37506,9 @@
         <v>91.164779999999993</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" s="13">
-        <v>44409</v>
+        <v>51349</v>
       </c>
       <c r="B23" s="14">
         <v>22</v>
@@ -37534,9 +37538,9 @@
         <v>82.135739999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" s="13">
-        <v>44409</v>
+        <v>51349</v>
       </c>
       <c r="B24" s="14">
         <v>23</v>
@@ -37566,9 +37570,9 @@
         <v>68.992019999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A25" s="13">
-        <v>44409</v>
+        <v>51349</v>
       </c>
       <c r="B25" s="14">
         <v>24</v>
@@ -37600,7 +37604,7 @@
     </row>
     <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="13">
-        <v>44410</v>
+        <v>51350</v>
       </c>
       <c r="B26" s="14">
         <v>1</v>
@@ -37632,7 +37636,7 @@
     </row>
     <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="13">
-        <v>44410</v>
+        <v>51350</v>
       </c>
       <c r="B27" s="14">
         <v>2</v>
@@ -37664,7 +37668,7 @@
     </row>
     <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="13">
-        <v>44410</v>
+        <v>51350</v>
       </c>
       <c r="B28" s="14">
         <v>3</v>
@@ -37696,7 +37700,7 @@
     </row>
     <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="13">
-        <v>44410</v>
+        <v>51350</v>
       </c>
       <c r="B29" s="14">
         <v>4</v>
@@ -37728,7 +37732,7 @@
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="13">
-        <v>44410</v>
+        <v>51350</v>
       </c>
       <c r="B30" s="14">
         <v>5</v>
@@ -37760,7 +37764,7 @@
     </row>
     <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="13">
-        <v>44410</v>
+        <v>51350</v>
       </c>
       <c r="B31" s="14">
         <v>6</v>
@@ -37792,7 +37796,7 @@
     </row>
     <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="13">
-        <v>44410</v>
+        <v>51350</v>
       </c>
       <c r="B32" s="14">
         <v>7</v>
@@ -37824,7 +37828,7 @@
     </row>
     <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="13">
-        <v>44410</v>
+        <v>51350</v>
       </c>
       <c r="B33" s="14">
         <v>8</v>
@@ -37856,7 +37860,7 @@
     </row>
     <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="13">
-        <v>44410</v>
+        <v>51350</v>
       </c>
       <c r="B34" s="14">
         <v>9</v>
@@ -37888,7 +37892,7 @@
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="13">
-        <v>44410</v>
+        <v>51350</v>
       </c>
       <c r="B35" s="14">
         <v>10</v>
@@ -37920,7 +37924,7 @@
     </row>
     <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="13">
-        <v>44410</v>
+        <v>51350</v>
       </c>
       <c r="B36" s="14">
         <v>11</v>
@@ -37952,7 +37956,7 @@
     </row>
     <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="13">
-        <v>44410</v>
+        <v>51350</v>
       </c>
       <c r="B37" s="14">
         <v>12</v>
@@ -37984,7 +37988,7 @@
     </row>
     <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="13">
-        <v>44410</v>
+        <v>51350</v>
       </c>
       <c r="B38" s="14">
         <v>13</v>
@@ -38016,7 +38020,7 @@
     </row>
     <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="13">
-        <v>44410</v>
+        <v>51350</v>
       </c>
       <c r="B39" s="14">
         <v>14</v>
@@ -38048,7 +38052,7 @@
     </row>
     <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="13">
-        <v>44410</v>
+        <v>51350</v>
       </c>
       <c r="B40" s="14">
         <v>15</v>
@@ -38080,7 +38084,7 @@
     </row>
     <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="13">
-        <v>44410</v>
+        <v>51350</v>
       </c>
       <c r="B41" s="14">
         <v>16</v>
@@ -38112,7 +38116,7 @@
     </row>
     <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="13">
-        <v>44410</v>
+        <v>51350</v>
       </c>
       <c r="B42" s="14">
         <v>17</v>
@@ -38144,7 +38148,7 @@
     </row>
     <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="13">
-        <v>44410</v>
+        <v>51350</v>
       </c>
       <c r="B43" s="14">
         <v>18</v>
@@ -38176,7 +38180,7 @@
     </row>
     <row r="44" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="13">
-        <v>44410</v>
+        <v>51350</v>
       </c>
       <c r="B44" s="14">
         <v>19</v>
@@ -38208,7 +38212,7 @@
     </row>
     <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="13">
-        <v>44410</v>
+        <v>51350</v>
       </c>
       <c r="B45" s="14">
         <v>20</v>
@@ -38240,7 +38244,7 @@
     </row>
     <row r="46" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="13">
-        <v>44410</v>
+        <v>51350</v>
       </c>
       <c r="B46" s="14">
         <v>21</v>
@@ -38272,7 +38276,7 @@
     </row>
     <row r="47" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="13">
-        <v>44410</v>
+        <v>51350</v>
       </c>
       <c r="B47" s="14">
         <v>22</v>
@@ -38304,7 +38308,7 @@
     </row>
     <row r="48" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="13">
-        <v>44410</v>
+        <v>51350</v>
       </c>
       <c r="B48" s="14">
         <v>23</v>
@@ -38336,7 +38340,7 @@
     </row>
     <row r="49" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="13">
-        <v>44410</v>
+        <v>51350</v>
       </c>
       <c r="B49" s="14">
         <v>24</v>
@@ -38368,7 +38372,7 @@
     </row>
     <row r="50" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="13">
-        <v>44411</v>
+        <v>51351</v>
       </c>
       <c r="B50" s="14">
         <v>1</v>
@@ -38400,7 +38404,7 @@
     </row>
     <row r="51" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="13">
-        <v>44411</v>
+        <v>51351</v>
       </c>
       <c r="B51" s="14">
         <v>2</v>
@@ -38432,7 +38436,7 @@
     </row>
     <row r="52" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="13">
-        <v>44411</v>
+        <v>51351</v>
       </c>
       <c r="B52" s="14">
         <v>3</v>
@@ -38464,7 +38468,7 @@
     </row>
     <row r="53" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="13">
-        <v>44411</v>
+        <v>51351</v>
       </c>
       <c r="B53" s="14">
         <v>4</v>
@@ -38496,7 +38500,7 @@
     </row>
     <row r="54" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="13">
-        <v>44411</v>
+        <v>51351</v>
       </c>
       <c r="B54" s="14">
         <v>5</v>
@@ -38528,7 +38532,7 @@
     </row>
     <row r="55" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="13">
-        <v>44411</v>
+        <v>51351</v>
       </c>
       <c r="B55" s="14">
         <v>6</v>
@@ -38560,7 +38564,7 @@
     </row>
     <row r="56" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="13">
-        <v>44411</v>
+        <v>51351</v>
       </c>
       <c r="B56" s="14">
         <v>7</v>
@@ -38592,7 +38596,7 @@
     </row>
     <row r="57" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="13">
-        <v>44411</v>
+        <v>51351</v>
       </c>
       <c r="B57" s="14">
         <v>8</v>
@@ -38624,7 +38628,7 @@
     </row>
     <row r="58" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="13">
-        <v>44411</v>
+        <v>51351</v>
       </c>
       <c r="B58" s="14">
         <v>9</v>
@@ -38656,7 +38660,7 @@
     </row>
     <row r="59" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="13">
-        <v>44411</v>
+        <v>51351</v>
       </c>
       <c r="B59" s="14">
         <v>10</v>
@@ -38688,7 +38692,7 @@
     </row>
     <row r="60" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="13">
-        <v>44411</v>
+        <v>51351</v>
       </c>
       <c r="B60" s="14">
         <v>11</v>
@@ -38720,7 +38724,7 @@
     </row>
     <row r="61" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="13">
-        <v>44411</v>
+        <v>51351</v>
       </c>
       <c r="B61" s="14">
         <v>12</v>
@@ -38752,7 +38756,7 @@
     </row>
     <row r="62" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="13">
-        <v>44411</v>
+        <v>51351</v>
       </c>
       <c r="B62" s="14">
         <v>13</v>
@@ -38784,7 +38788,7 @@
     </row>
     <row r="63" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="13">
-        <v>44411</v>
+        <v>51351</v>
       </c>
       <c r="B63" s="14">
         <v>14</v>
@@ -38816,7 +38820,7 @@
     </row>
     <row r="64" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="13">
-        <v>44411</v>
+        <v>51351</v>
       </c>
       <c r="B64" s="14">
         <v>15</v>
@@ -38848,7 +38852,7 @@
     </row>
     <row r="65" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="13">
-        <v>44411</v>
+        <v>51351</v>
       </c>
       <c r="B65" s="14">
         <v>16</v>
@@ -38880,7 +38884,7 @@
     </row>
     <row r="66" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="13">
-        <v>44411</v>
+        <v>51351</v>
       </c>
       <c r="B66" s="14">
         <v>17</v>
@@ -38912,7 +38916,7 @@
     </row>
     <row r="67" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="13">
-        <v>44411</v>
+        <v>51351</v>
       </c>
       <c r="B67" s="14">
         <v>18</v>
@@ -38944,7 +38948,7 @@
     </row>
     <row r="68" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="13">
-        <v>44411</v>
+        <v>51351</v>
       </c>
       <c r="B68" s="14">
         <v>19</v>
@@ -38976,7 +38980,7 @@
     </row>
     <row r="69" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="13">
-        <v>44411</v>
+        <v>51351</v>
       </c>
       <c r="B69" s="14">
         <v>20</v>
@@ -39008,7 +39012,7 @@
     </row>
     <row r="70" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="13">
-        <v>44411</v>
+        <v>51351</v>
       </c>
       <c r="B70" s="14">
         <v>21</v>
@@ -39040,7 +39044,7 @@
     </row>
     <row r="71" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="13">
-        <v>44411</v>
+        <v>51351</v>
       </c>
       <c r="B71" s="14">
         <v>22</v>
@@ -39072,7 +39076,7 @@
     </row>
     <row r="72" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="13">
-        <v>44411</v>
+        <v>51351</v>
       </c>
       <c r="B72" s="14">
         <v>23</v>
@@ -39104,7 +39108,7 @@
     </row>
     <row r="73" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="13">
-        <v>44411</v>
+        <v>51351</v>
       </c>
       <c r="B73" s="14">
         <v>24</v>
@@ -39136,7 +39140,7 @@
     </row>
     <row r="74" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="13">
-        <v>44412</v>
+        <v>51352</v>
       </c>
       <c r="B74" s="14">
         <v>1</v>
@@ -39168,7 +39172,7 @@
     </row>
     <row r="75" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="13">
-        <v>44412</v>
+        <v>51352</v>
       </c>
       <c r="B75" s="14">
         <v>2</v>
@@ -39200,7 +39204,7 @@
     </row>
     <row r="76" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="13">
-        <v>44412</v>
+        <v>51352</v>
       </c>
       <c r="B76" s="14">
         <v>3</v>
@@ -39232,7 +39236,7 @@
     </row>
     <row r="77" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="13">
-        <v>44412</v>
+        <v>51352</v>
       </c>
       <c r="B77" s="14">
         <v>4</v>
@@ -39264,7 +39268,7 @@
     </row>
     <row r="78" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="13">
-        <v>44412</v>
+        <v>51352</v>
       </c>
       <c r="B78" s="14">
         <v>5</v>
@@ -39296,7 +39300,7 @@
     </row>
     <row r="79" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="13">
-        <v>44412</v>
+        <v>51352</v>
       </c>
       <c r="B79" s="14">
         <v>6</v>
@@ -39328,7 +39332,7 @@
     </row>
     <row r="80" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="13">
-        <v>44412</v>
+        <v>51352</v>
       </c>
       <c r="B80" s="14">
         <v>7</v>
@@ -39360,7 +39364,7 @@
     </row>
     <row r="81" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="13">
-        <v>44412</v>
+        <v>51352</v>
       </c>
       <c r="B81" s="14">
         <v>8</v>
@@ -39392,7 +39396,7 @@
     </row>
     <row r="82" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="13">
-        <v>44412</v>
+        <v>51352</v>
       </c>
       <c r="B82" s="14">
         <v>9</v>
@@ -39424,7 +39428,7 @@
     </row>
     <row r="83" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="13">
-        <v>44412</v>
+        <v>51352</v>
       </c>
       <c r="B83" s="14">
         <v>10</v>
@@ -39456,7 +39460,7 @@
     </row>
     <row r="84" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="13">
-        <v>44412</v>
+        <v>51352</v>
       </c>
       <c r="B84" s="14">
         <v>11</v>
@@ -39488,7 +39492,7 @@
     </row>
     <row r="85" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="13">
-        <v>44412</v>
+        <v>51352</v>
       </c>
       <c r="B85" s="14">
         <v>12</v>
@@ -39520,7 +39524,7 @@
     </row>
     <row r="86" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="13">
-        <v>44412</v>
+        <v>51352</v>
       </c>
       <c r="B86" s="14">
         <v>13</v>
@@ -39552,7 +39556,7 @@
     </row>
     <row r="87" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="13">
-        <v>44412</v>
+        <v>51352</v>
       </c>
       <c r="B87" s="14">
         <v>14</v>
@@ -39584,7 +39588,7 @@
     </row>
     <row r="88" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="13">
-        <v>44412</v>
+        <v>51352</v>
       </c>
       <c r="B88" s="14">
         <v>15</v>
@@ -39616,7 +39620,7 @@
     </row>
     <row r="89" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="13">
-        <v>44412</v>
+        <v>51352</v>
       </c>
       <c r="B89" s="14">
         <v>16</v>
@@ -39648,7 +39652,7 @@
     </row>
     <row r="90" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="13">
-        <v>44412</v>
+        <v>51352</v>
       </c>
       <c r="B90" s="14">
         <v>17</v>
@@ -39680,7 +39684,7 @@
     </row>
     <row r="91" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="13">
-        <v>44412</v>
+        <v>51352</v>
       </c>
       <c r="B91" s="14">
         <v>18</v>
@@ -39712,7 +39716,7 @@
     </row>
     <row r="92" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="13">
-        <v>44412</v>
+        <v>51352</v>
       </c>
       <c r="B92" s="14">
         <v>19</v>
@@ -39744,7 +39748,7 @@
     </row>
     <row r="93" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="13">
-        <v>44412</v>
+        <v>51352</v>
       </c>
       <c r="B93" s="14">
         <v>20</v>
@@ -39776,7 +39780,7 @@
     </row>
     <row r="94" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="13">
-        <v>44412</v>
+        <v>51352</v>
       </c>
       <c r="B94" s="14">
         <v>21</v>
@@ -39808,7 +39812,7 @@
     </row>
     <row r="95" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="13">
-        <v>44412</v>
+        <v>51352</v>
       </c>
       <c r="B95" s="14">
         <v>22</v>
@@ -39840,7 +39844,7 @@
     </row>
     <row r="96" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="13">
-        <v>44412</v>
+        <v>51352</v>
       </c>
       <c r="B96" s="14">
         <v>23</v>
@@ -39872,7 +39876,7 @@
     </row>
     <row r="97" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="13">
-        <v>44412</v>
+        <v>51352</v>
       </c>
       <c r="B97" s="14">
         <v>24</v>
@@ -39904,7 +39908,7 @@
     </row>
     <row r="98" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="13">
-        <v>44413</v>
+        <v>51353</v>
       </c>
       <c r="B98" s="14">
         <v>1</v>
@@ -39936,7 +39940,7 @@
     </row>
     <row r="99" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="13">
-        <v>44413</v>
+        <v>51353</v>
       </c>
       <c r="B99" s="14">
         <v>2</v>
@@ -39968,7 +39972,7 @@
     </row>
     <row r="100" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="13">
-        <v>44413</v>
+        <v>51353</v>
       </c>
       <c r="B100" s="14">
         <v>3</v>
@@ -40000,7 +40004,7 @@
     </row>
     <row r="101" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="13">
-        <v>44413</v>
+        <v>51353</v>
       </c>
       <c r="B101" s="14">
         <v>4</v>
@@ -40032,7 +40036,7 @@
     </row>
     <row r="102" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="13">
-        <v>44413</v>
+        <v>51353</v>
       </c>
       <c r="B102" s="14">
         <v>5</v>
@@ -40064,7 +40068,7 @@
     </row>
     <row r="103" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="13">
-        <v>44413</v>
+        <v>51353</v>
       </c>
       <c r="B103" s="14">
         <v>6</v>
@@ -40096,7 +40100,7 @@
     </row>
     <row r="104" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="13">
-        <v>44413</v>
+        <v>51353</v>
       </c>
       <c r="B104" s="14">
         <v>7</v>
@@ -40128,7 +40132,7 @@
     </row>
     <row r="105" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="13">
-        <v>44413</v>
+        <v>51353</v>
       </c>
       <c r="B105" s="14">
         <v>8</v>
@@ -40160,7 +40164,7 @@
     </row>
     <row r="106" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="13">
-        <v>44413</v>
+        <v>51353</v>
       </c>
       <c r="B106" s="14">
         <v>9</v>
@@ -40192,7 +40196,7 @@
     </row>
     <row r="107" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="13">
-        <v>44413</v>
+        <v>51353</v>
       </c>
       <c r="B107" s="14">
         <v>10</v>
@@ -40224,7 +40228,7 @@
     </row>
     <row r="108" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="13">
-        <v>44413</v>
+        <v>51353</v>
       </c>
       <c r="B108" s="14">
         <v>11</v>
@@ -40256,7 +40260,7 @@
     </row>
     <row r="109" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="13">
-        <v>44413</v>
+        <v>51353</v>
       </c>
       <c r="B109" s="14">
         <v>12</v>
@@ -40288,7 +40292,7 @@
     </row>
     <row r="110" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="13">
-        <v>44413</v>
+        <v>51353</v>
       </c>
       <c r="B110" s="14">
         <v>13</v>
@@ -40320,7 +40324,7 @@
     </row>
     <row r="111" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="13">
-        <v>44413</v>
+        <v>51353</v>
       </c>
       <c r="B111" s="14">
         <v>14</v>
@@ -40352,7 +40356,7 @@
     </row>
     <row r="112" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="13">
-        <v>44413</v>
+        <v>51353</v>
       </c>
       <c r="B112" s="14">
         <v>15</v>
@@ -40384,7 +40388,7 @@
     </row>
     <row r="113" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="13">
-        <v>44413</v>
+        <v>51353</v>
       </c>
       <c r="B113" s="14">
         <v>16</v>
@@ -40416,7 +40420,7 @@
     </row>
     <row r="114" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="13">
-        <v>44413</v>
+        <v>51353</v>
       </c>
       <c r="B114" s="14">
         <v>17</v>
@@ -40448,7 +40452,7 @@
     </row>
     <row r="115" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="13">
-        <v>44413</v>
+        <v>51353</v>
       </c>
       <c r="B115" s="14">
         <v>18</v>
@@ -40480,7 +40484,7 @@
     </row>
     <row r="116" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="13">
-        <v>44413</v>
+        <v>51353</v>
       </c>
       <c r="B116" s="14">
         <v>19</v>
@@ -40512,7 +40516,7 @@
     </row>
     <row r="117" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="13">
-        <v>44413</v>
+        <v>51353</v>
       </c>
       <c r="B117" s="14">
         <v>20</v>
@@ -40544,7 +40548,7 @@
     </row>
     <row r="118" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="13">
-        <v>44413</v>
+        <v>51353</v>
       </c>
       <c r="B118" s="14">
         <v>21</v>
@@ -40576,7 +40580,7 @@
     </row>
     <row r="119" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="13">
-        <v>44413</v>
+        <v>51353</v>
       </c>
       <c r="B119" s="14">
         <v>22</v>
@@ -40608,7 +40612,7 @@
     </row>
     <row r="120" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="13">
-        <v>44413</v>
+        <v>51353</v>
       </c>
       <c r="B120" s="14">
         <v>23</v>
@@ -40640,7 +40644,7 @@
     </row>
     <row r="121" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="13">
-        <v>44413</v>
+        <v>51353</v>
       </c>
       <c r="B121" s="14">
         <v>24</v>
@@ -40672,7 +40676,7 @@
     </row>
     <row r="122" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="13">
-        <v>44414</v>
+        <v>51354</v>
       </c>
       <c r="B122" s="14">
         <v>1</v>
@@ -40704,7 +40708,7 @@
     </row>
     <row r="123" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="13">
-        <v>44414</v>
+        <v>51354</v>
       </c>
       <c r="B123" s="14">
         <v>2</v>
@@ -40736,7 +40740,7 @@
     </row>
     <row r="124" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="13">
-        <v>44414</v>
+        <v>51354</v>
       </c>
       <c r="B124" s="14">
         <v>3</v>
@@ -40768,7 +40772,7 @@
     </row>
     <row r="125" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="13">
-        <v>44414</v>
+        <v>51354</v>
       </c>
       <c r="B125" s="14">
         <v>4</v>
@@ -40800,7 +40804,7 @@
     </row>
     <row r="126" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="13">
-        <v>44414</v>
+        <v>51354</v>
       </c>
       <c r="B126" s="14">
         <v>5</v>
@@ -40832,7 +40836,7 @@
     </row>
     <row r="127" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="13">
-        <v>44414</v>
+        <v>51354</v>
       </c>
       <c r="B127" s="14">
         <v>6</v>
@@ -40864,7 +40868,7 @@
     </row>
     <row r="128" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="13">
-        <v>44414</v>
+        <v>51354</v>
       </c>
       <c r="B128" s="14">
         <v>7</v>
@@ -40896,7 +40900,7 @@
     </row>
     <row r="129" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="13">
-        <v>44414</v>
+        <v>51354</v>
       </c>
       <c r="B129" s="14">
         <v>8</v>
@@ -40928,7 +40932,7 @@
     </row>
     <row r="130" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="13">
-        <v>44414</v>
+        <v>51354</v>
       </c>
       <c r="B130" s="14">
         <v>9</v>
@@ -40960,7 +40964,7 @@
     </row>
     <row r="131" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="13">
-        <v>44414</v>
+        <v>51354</v>
       </c>
       <c r="B131" s="14">
         <v>10</v>
@@ -40992,7 +40996,7 @@
     </row>
     <row r="132" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="13">
-        <v>44414</v>
+        <v>51354</v>
       </c>
       <c r="B132" s="14">
         <v>11</v>
@@ -41024,7 +41028,7 @@
     </row>
     <row r="133" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="13">
-        <v>44414</v>
+        <v>51354</v>
       </c>
       <c r="B133" s="14">
         <v>12</v>
@@ -41056,7 +41060,7 @@
     </row>
     <row r="134" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="13">
-        <v>44414</v>
+        <v>51354</v>
       </c>
       <c r="B134" s="14">
         <v>13</v>
@@ -41088,7 +41092,7 @@
     </row>
     <row r="135" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="13">
-        <v>44414</v>
+        <v>51354</v>
       </c>
       <c r="B135" s="14">
         <v>14</v>
@@ -41120,7 +41124,7 @@
     </row>
     <row r="136" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="13">
-        <v>44414</v>
+        <v>51354</v>
       </c>
       <c r="B136" s="14">
         <v>15</v>
@@ -41152,7 +41156,7 @@
     </row>
     <row r="137" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="13">
-        <v>44414</v>
+        <v>51354</v>
       </c>
       <c r="B137" s="14">
         <v>16</v>
@@ -41184,7 +41188,7 @@
     </row>
     <row r="138" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="13">
-        <v>44414</v>
+        <v>51354</v>
       </c>
       <c r="B138" s="14">
         <v>17</v>
@@ -41216,7 +41220,7 @@
     </row>
     <row r="139" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="13">
-        <v>44414</v>
+        <v>51354</v>
       </c>
       <c r="B139" s="14">
         <v>18</v>
@@ -41248,7 +41252,7 @@
     </row>
     <row r="140" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="13">
-        <v>44414</v>
+        <v>51354</v>
       </c>
       <c r="B140" s="14">
         <v>19</v>
@@ -41280,7 +41284,7 @@
     </row>
     <row r="141" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="13">
-        <v>44414</v>
+        <v>51354</v>
       </c>
       <c r="B141" s="14">
         <v>20</v>
@@ -41312,7 +41316,7 @@
     </row>
     <row r="142" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="13">
-        <v>44414</v>
+        <v>51354</v>
       </c>
       <c r="B142" s="14">
         <v>21</v>
@@ -41344,7 +41348,7 @@
     </row>
     <row r="143" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="13">
-        <v>44414</v>
+        <v>51354</v>
       </c>
       <c r="B143" s="14">
         <v>22</v>
@@ -41376,7 +41380,7 @@
     </row>
     <row r="144" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="13">
-        <v>44414</v>
+        <v>51354</v>
       </c>
       <c r="B144" s="14">
         <v>23</v>
@@ -41408,7 +41412,7 @@
     </row>
     <row r="145" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="13">
-        <v>44414</v>
+        <v>51354</v>
       </c>
       <c r="B145" s="14">
         <v>24</v>
@@ -41440,7 +41444,7 @@
     </row>
     <row r="146" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="13">
-        <v>44415</v>
+        <v>51355</v>
       </c>
       <c r="B146" s="14">
         <v>1</v>
@@ -41472,7 +41476,7 @@
     </row>
     <row r="147" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="13">
-        <v>44415</v>
+        <v>51355</v>
       </c>
       <c r="B147" s="14">
         <v>2</v>
@@ -41504,7 +41508,7 @@
     </row>
     <row r="148" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="13">
-        <v>44415</v>
+        <v>51355</v>
       </c>
       <c r="B148" s="14">
         <v>3</v>
@@ -41536,7 +41540,7 @@
     </row>
     <row r="149" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="13">
-        <v>44415</v>
+        <v>51355</v>
       </c>
       <c r="B149" s="14">
         <v>4</v>
@@ -41568,7 +41572,7 @@
     </row>
     <row r="150" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="13">
-        <v>44415</v>
+        <v>51355</v>
       </c>
       <c r="B150" s="14">
         <v>5</v>
@@ -41600,7 +41604,7 @@
     </row>
     <row r="151" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="13">
-        <v>44415</v>
+        <v>51355</v>
       </c>
       <c r="B151" s="14">
         <v>6</v>
@@ -41632,7 +41636,7 @@
     </row>
     <row r="152" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="13">
-        <v>44415</v>
+        <v>51355</v>
       </c>
       <c r="B152" s="14">
         <v>7</v>
@@ -41664,7 +41668,7 @@
     </row>
     <row r="153" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="13">
-        <v>44415</v>
+        <v>51355</v>
       </c>
       <c r="B153" s="14">
         <v>8</v>
@@ -41696,7 +41700,7 @@
     </row>
     <row r="154" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="13">
-        <v>44415</v>
+        <v>51355</v>
       </c>
       <c r="B154" s="14">
         <v>9</v>
@@ -41728,7 +41732,7 @@
     </row>
     <row r="155" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="13">
-        <v>44415</v>
+        <v>51355</v>
       </c>
       <c r="B155" s="14">
         <v>10</v>
@@ -41760,7 +41764,7 @@
     </row>
     <row r="156" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="13">
-        <v>44415</v>
+        <v>51355</v>
       </c>
       <c r="B156" s="14">
         <v>11</v>
@@ -41792,7 +41796,7 @@
     </row>
     <row r="157" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="13">
-        <v>44415</v>
+        <v>51355</v>
       </c>
       <c r="B157" s="14">
         <v>12</v>
@@ -41824,7 +41828,7 @@
     </row>
     <row r="158" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="13">
-        <v>44415</v>
+        <v>51355</v>
       </c>
       <c r="B158" s="14">
         <v>13</v>
@@ -41856,7 +41860,7 @@
     </row>
     <row r="159" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="13">
-        <v>44415</v>
+        <v>51355</v>
       </c>
       <c r="B159" s="14">
         <v>14</v>
@@ -41888,7 +41892,7 @@
     </row>
     <row r="160" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="13">
-        <v>44415</v>
+        <v>51355</v>
       </c>
       <c r="B160" s="14">
         <v>15</v>
@@ -41920,7 +41924,7 @@
     </row>
     <row r="161" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="13">
-        <v>44415</v>
+        <v>51355</v>
       </c>
       <c r="B161" s="14">
         <v>16</v>
@@ -41952,7 +41956,7 @@
     </row>
     <row r="162" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="13">
-        <v>44415</v>
+        <v>51355</v>
       </c>
       <c r="B162" s="14">
         <v>17</v>
@@ -41984,7 +41988,7 @@
     </row>
     <row r="163" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="13">
-        <v>44415</v>
+        <v>51355</v>
       </c>
       <c r="B163" s="14">
         <v>18</v>
@@ -42016,7 +42020,7 @@
     </row>
     <row r="164" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="13">
-        <v>44415</v>
+        <v>51355</v>
       </c>
       <c r="B164" s="14">
         <v>19</v>
@@ -42048,7 +42052,7 @@
     </row>
     <row r="165" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="13">
-        <v>44415</v>
+        <v>51355</v>
       </c>
       <c r="B165" s="14">
         <v>20</v>
@@ -42080,7 +42084,7 @@
     </row>
     <row r="166" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="13">
-        <v>44415</v>
+        <v>51355</v>
       </c>
       <c r="B166" s="14">
         <v>21</v>
@@ -42112,7 +42116,7 @@
     </row>
     <row r="167" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="13">
-        <v>44415</v>
+        <v>51355</v>
       </c>
       <c r="B167" s="14">
         <v>22</v>
@@ -42144,7 +42148,7 @@
     </row>
     <row r="168" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="13">
-        <v>44415</v>
+        <v>51355</v>
       </c>
       <c r="B168" s="14">
         <v>23</v>
@@ -42176,7 +42180,7 @@
     </row>
     <row r="169" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="13">
-        <v>44415</v>
+        <v>51355</v>
       </c>
       <c r="B169" s="14">
         <v>24</v>
@@ -42208,7 +42212,7 @@
     </row>
     <row r="170" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="13">
-        <v>44416</v>
+        <v>51356</v>
       </c>
       <c r="B170" s="14">
         <v>1</v>
@@ -42240,7 +42244,7 @@
     </row>
     <row r="171" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="13">
-        <v>44416</v>
+        <v>51356</v>
       </c>
       <c r="B171" s="14">
         <v>2</v>
@@ -42272,7 +42276,7 @@
     </row>
     <row r="172" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="13">
-        <v>44416</v>
+        <v>51356</v>
       </c>
       <c r="B172" s="14">
         <v>3</v>
@@ -42304,7 +42308,7 @@
     </row>
     <row r="173" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="13">
-        <v>44416</v>
+        <v>51356</v>
       </c>
       <c r="B173" s="14">
         <v>4</v>
@@ -42336,7 +42340,7 @@
     </row>
     <row r="174" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="13">
-        <v>44416</v>
+        <v>51356</v>
       </c>
       <c r="B174" s="14">
         <v>5</v>
@@ -42368,7 +42372,7 @@
     </row>
     <row r="175" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="13">
-        <v>44416</v>
+        <v>51356</v>
       </c>
       <c r="B175" s="14">
         <v>6</v>
@@ -42400,7 +42404,7 @@
     </row>
     <row r="176" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="13">
-        <v>44416</v>
+        <v>51356</v>
       </c>
       <c r="B176" s="14">
         <v>7</v>
@@ -42432,7 +42436,7 @@
     </row>
     <row r="177" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="13">
-        <v>44416</v>
+        <v>51356</v>
       </c>
       <c r="B177" s="14">
         <v>8</v>
@@ -42464,7 +42468,7 @@
     </row>
     <row r="178" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="13">
-        <v>44416</v>
+        <v>51356</v>
       </c>
       <c r="B178" s="14">
         <v>9</v>
@@ -42496,7 +42500,7 @@
     </row>
     <row r="179" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="13">
-        <v>44416</v>
+        <v>51356</v>
       </c>
       <c r="B179" s="14">
         <v>10</v>
@@ -42528,7 +42532,7 @@
     </row>
     <row r="180" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="13">
-        <v>44416</v>
+        <v>51356</v>
       </c>
       <c r="B180" s="14">
         <v>11</v>
@@ -42560,7 +42564,7 @@
     </row>
     <row r="181" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="13">
-        <v>44416</v>
+        <v>51356</v>
       </c>
       <c r="B181" s="14">
         <v>12</v>
@@ -42592,7 +42596,7 @@
     </row>
     <row r="182" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="13">
-        <v>44416</v>
+        <v>51356</v>
       </c>
       <c r="B182" s="14">
         <v>13</v>
@@ -42624,7 +42628,7 @@
     </row>
     <row r="183" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="13">
-        <v>44416</v>
+        <v>51356</v>
       </c>
       <c r="B183" s="14">
         <v>14</v>
@@ -42656,7 +42660,7 @@
     </row>
     <row r="184" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="13">
-        <v>44416</v>
+        <v>51356</v>
       </c>
       <c r="B184" s="14">
         <v>15</v>
@@ -42688,7 +42692,7 @@
     </row>
     <row r="185" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="13">
-        <v>44416</v>
+        <v>51356</v>
       </c>
       <c r="B185" s="14">
         <v>16</v>
@@ -42720,7 +42724,7 @@
     </row>
     <row r="186" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="13">
-        <v>44416</v>
+        <v>51356</v>
       </c>
       <c r="B186" s="14">
         <v>17</v>
@@ -42752,7 +42756,7 @@
     </row>
     <row r="187" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="13">
-        <v>44416</v>
+        <v>51356</v>
       </c>
       <c r="B187" s="14">
         <v>18</v>
@@ -42784,7 +42788,7 @@
     </row>
     <row r="188" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="13">
-        <v>44416</v>
+        <v>51356</v>
       </c>
       <c r="B188" s="14">
         <v>19</v>
@@ -42816,7 +42820,7 @@
     </row>
     <row r="189" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="13">
-        <v>44416</v>
+        <v>51356</v>
       </c>
       <c r="B189" s="14">
         <v>20</v>
@@ -42848,7 +42852,7 @@
     </row>
     <row r="190" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="13">
-        <v>44416</v>
+        <v>51356</v>
       </c>
       <c r="B190" s="14">
         <v>21</v>
@@ -42880,7 +42884,7 @@
     </row>
     <row r="191" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="13">
-        <v>44416</v>
+        <v>51356</v>
       </c>
       <c r="B191" s="14">
         <v>22</v>
@@ -42912,7 +42916,7 @@
     </row>
     <row r="192" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="13">
-        <v>44416</v>
+        <v>51356</v>
       </c>
       <c r="B192" s="14">
         <v>23</v>
@@ -42944,7 +42948,7 @@
     </row>
     <row r="193" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="13">
-        <v>44416</v>
+        <v>51356</v>
       </c>
       <c r="B193" s="14">
         <v>24</v>
@@ -42976,7 +42980,7 @@
     </row>
     <row r="194" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="13">
-        <v>44417</v>
+        <v>51357</v>
       </c>
       <c r="B194" s="14">
         <v>1</v>
@@ -43008,7 +43012,7 @@
     </row>
     <row r="195" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="13">
-        <v>44417</v>
+        <v>51357</v>
       </c>
       <c r="B195" s="14">
         <v>2</v>
@@ -43040,7 +43044,7 @@
     </row>
     <row r="196" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="13">
-        <v>44417</v>
+        <v>51357</v>
       </c>
       <c r="B196" s="14">
         <v>3</v>
@@ -43072,7 +43076,7 @@
     </row>
     <row r="197" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="13">
-        <v>44417</v>
+        <v>51357</v>
       </c>
       <c r="B197" s="14">
         <v>4</v>
@@ -43104,7 +43108,7 @@
     </row>
     <row r="198" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="13">
-        <v>44417</v>
+        <v>51357</v>
       </c>
       <c r="B198" s="14">
         <v>5</v>
@@ -43136,7 +43140,7 @@
     </row>
     <row r="199" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="13">
-        <v>44417</v>
+        <v>51357</v>
       </c>
       <c r="B199" s="14">
         <v>6</v>
@@ -43168,7 +43172,7 @@
     </row>
     <row r="200" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="13">
-        <v>44417</v>
+        <v>51357</v>
       </c>
       <c r="B200" s="14">
         <v>7</v>
@@ -43200,7 +43204,7 @@
     </row>
     <row r="201" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="13">
-        <v>44417</v>
+        <v>51357</v>
       </c>
       <c r="B201" s="14">
         <v>8</v>
@@ -43232,7 +43236,7 @@
     </row>
     <row r="202" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="13">
-        <v>44417</v>
+        <v>51357</v>
       </c>
       <c r="B202" s="14">
         <v>9</v>
@@ -43264,7 +43268,7 @@
     </row>
     <row r="203" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="13">
-        <v>44417</v>
+        <v>51357</v>
       </c>
       <c r="B203" s="14">
         <v>10</v>
@@ -43296,7 +43300,7 @@
     </row>
     <row r="204" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" s="13">
-        <v>44417</v>
+        <v>51357</v>
       </c>
       <c r="B204" s="14">
         <v>11</v>
@@ -43328,7 +43332,7 @@
     </row>
     <row r="205" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" s="13">
-        <v>44417</v>
+        <v>51357</v>
       </c>
       <c r="B205" s="14">
         <v>12</v>
@@ -43360,7 +43364,7 @@
     </row>
     <row r="206" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A206" s="13">
-        <v>44417</v>
+        <v>51357</v>
       </c>
       <c r="B206" s="14">
         <v>13</v>
@@ -43392,7 +43396,7 @@
     </row>
     <row r="207" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207" s="13">
-        <v>44417</v>
+        <v>51357</v>
       </c>
       <c r="B207" s="14">
         <v>14</v>
@@ -43424,7 +43428,7 @@
     </row>
     <row r="208" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A208" s="13">
-        <v>44417</v>
+        <v>51357</v>
       </c>
       <c r="B208" s="14">
         <v>15</v>
@@ -43456,7 +43460,7 @@
     </row>
     <row r="209" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A209" s="13">
-        <v>44417</v>
+        <v>51357</v>
       </c>
       <c r="B209" s="14">
         <v>16</v>
@@ -43488,7 +43492,7 @@
     </row>
     <row r="210" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A210" s="13">
-        <v>44417</v>
+        <v>51357</v>
       </c>
       <c r="B210" s="14">
         <v>17</v>
@@ -43520,7 +43524,7 @@
     </row>
     <row r="211" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A211" s="13">
-        <v>44417</v>
+        <v>51357</v>
       </c>
       <c r="B211" s="14">
         <v>18</v>
@@ -43552,7 +43556,7 @@
     </row>
     <row r="212" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212" s="13">
-        <v>44417</v>
+        <v>51357</v>
       </c>
       <c r="B212" s="14">
         <v>19</v>
@@ -43584,7 +43588,7 @@
     </row>
     <row r="213" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A213" s="13">
-        <v>44417</v>
+        <v>51357</v>
       </c>
       <c r="B213" s="14">
         <v>20</v>
@@ -43616,7 +43620,7 @@
     </row>
     <row r="214" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A214" s="13">
-        <v>44417</v>
+        <v>51357</v>
       </c>
       <c r="B214" s="14">
         <v>21</v>
@@ -43648,7 +43652,7 @@
     </row>
     <row r="215" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A215" s="13">
-        <v>44417</v>
+        <v>51357</v>
       </c>
       <c r="B215" s="14">
         <v>22</v>
@@ -43680,7 +43684,7 @@
     </row>
     <row r="216" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216" s="13">
-        <v>44417</v>
+        <v>51357</v>
       </c>
       <c r="B216" s="14">
         <v>23</v>
@@ -43712,7 +43716,7 @@
     </row>
     <row r="217" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A217" s="13">
-        <v>44417</v>
+        <v>51357</v>
       </c>
       <c r="B217" s="14">
         <v>24</v>
@@ -43744,7 +43748,7 @@
     </row>
     <row r="218" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A218" s="13">
-        <v>44418</v>
+        <v>51358</v>
       </c>
       <c r="B218" s="14">
         <v>1</v>
@@ -43776,7 +43780,7 @@
     </row>
     <row r="219" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A219" s="13">
-        <v>44418</v>
+        <v>51358</v>
       </c>
       <c r="B219" s="14">
         <v>2</v>
@@ -43808,7 +43812,7 @@
     </row>
     <row r="220" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A220" s="13">
-        <v>44418</v>
+        <v>51358</v>
       </c>
       <c r="B220" s="14">
         <v>3</v>
@@ -43840,7 +43844,7 @@
     </row>
     <row r="221" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A221" s="13">
-        <v>44418</v>
+        <v>51358</v>
       </c>
       <c r="B221" s="14">
         <v>4</v>
@@ -43872,7 +43876,7 @@
     </row>
     <row r="222" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A222" s="13">
-        <v>44418</v>
+        <v>51358</v>
       </c>
       <c r="B222" s="14">
         <v>5</v>
@@ -43904,7 +43908,7 @@
     </row>
     <row r="223" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A223" s="13">
-        <v>44418</v>
+        <v>51358</v>
       </c>
       <c r="B223" s="14">
         <v>6</v>
@@ -43936,7 +43940,7 @@
     </row>
     <row r="224" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A224" s="13">
-        <v>44418</v>
+        <v>51358</v>
       </c>
       <c r="B224" s="14">
         <v>7</v>
@@ -43968,7 +43972,7 @@
     </row>
     <row r="225" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A225" s="13">
-        <v>44418</v>
+        <v>51358</v>
       </c>
       <c r="B225" s="14">
         <v>8</v>
@@ -44000,7 +44004,7 @@
     </row>
     <row r="226" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A226" s="13">
-        <v>44418</v>
+        <v>51358</v>
       </c>
       <c r="B226" s="14">
         <v>9</v>
@@ -44032,7 +44036,7 @@
     </row>
     <row r="227" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A227" s="13">
-        <v>44418</v>
+        <v>51358</v>
       </c>
       <c r="B227" s="14">
         <v>10</v>
@@ -44064,7 +44068,7 @@
     </row>
     <row r="228" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A228" s="13">
-        <v>44418</v>
+        <v>51358</v>
       </c>
       <c r="B228" s="14">
         <v>11</v>
@@ -44096,7 +44100,7 @@
     </row>
     <row r="229" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A229" s="13">
-        <v>44418</v>
+        <v>51358</v>
       </c>
       <c r="B229" s="14">
         <v>12</v>
@@ -44128,7 +44132,7 @@
     </row>
     <row r="230" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A230" s="13">
-        <v>44418</v>
+        <v>51358</v>
       </c>
       <c r="B230" s="14">
         <v>13</v>
@@ -44160,7 +44164,7 @@
     </row>
     <row r="231" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A231" s="13">
-        <v>44418</v>
+        <v>51358</v>
       </c>
       <c r="B231" s="14">
         <v>14</v>
@@ -44192,7 +44196,7 @@
     </row>
     <row r="232" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A232" s="13">
-        <v>44418</v>
+        <v>51358</v>
       </c>
       <c r="B232" s="14">
         <v>15</v>
@@ -44224,7 +44228,7 @@
     </row>
     <row r="233" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A233" s="13">
-        <v>44418</v>
+        <v>51358</v>
       </c>
       <c r="B233" s="14">
         <v>16</v>
@@ -44256,7 +44260,7 @@
     </row>
     <row r="234" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A234" s="13">
-        <v>44418</v>
+        <v>51358</v>
       </c>
       <c r="B234" s="14">
         <v>17</v>
@@ -44288,7 +44292,7 @@
     </row>
     <row r="235" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A235" s="13">
-        <v>44418</v>
+        <v>51358</v>
       </c>
       <c r="B235" s="14">
         <v>18</v>
@@ -44320,7 +44324,7 @@
     </row>
     <row r="236" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A236" s="13">
-        <v>44418</v>
+        <v>51358</v>
       </c>
       <c r="B236" s="14">
         <v>19</v>
@@ -44352,7 +44356,7 @@
     </row>
     <row r="237" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A237" s="13">
-        <v>44418</v>
+        <v>51358</v>
       </c>
       <c r="B237" s="14">
         <v>20</v>
@@ -44384,7 +44388,7 @@
     </row>
     <row r="238" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A238" s="13">
-        <v>44418</v>
+        <v>51358</v>
       </c>
       <c r="B238" s="14">
         <v>21</v>
@@ -44416,7 +44420,7 @@
     </row>
     <row r="239" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A239" s="13">
-        <v>44418</v>
+        <v>51358</v>
       </c>
       <c r="B239" s="14">
         <v>22</v>
@@ -44448,7 +44452,7 @@
     </row>
     <row r="240" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A240" s="13">
-        <v>44418</v>
+        <v>51358</v>
       </c>
       <c r="B240" s="14">
         <v>23</v>
@@ -44480,7 +44484,7 @@
     </row>
     <row r="241" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A241" s="13">
-        <v>44418</v>
+        <v>51358</v>
       </c>
       <c r="B241" s="14">
         <v>24</v>
@@ -44512,7 +44516,7 @@
     </row>
     <row r="242" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A242" s="13">
-        <v>44419</v>
+        <v>51359</v>
       </c>
       <c r="B242" s="14">
         <v>1</v>
@@ -44544,7 +44548,7 @@
     </row>
     <row r="243" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A243" s="13">
-        <v>44419</v>
+        <v>51359</v>
       </c>
       <c r="B243" s="14">
         <v>2</v>
@@ -44576,7 +44580,7 @@
     </row>
     <row r="244" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A244" s="13">
-        <v>44419</v>
+        <v>51359</v>
       </c>
       <c r="B244" s="14">
         <v>3</v>
@@ -44608,7 +44612,7 @@
     </row>
     <row r="245" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A245" s="13">
-        <v>44419</v>
+        <v>51359</v>
       </c>
       <c r="B245" s="14">
         <v>4</v>
@@ -44640,7 +44644,7 @@
     </row>
     <row r="246" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A246" s="13">
-        <v>44419</v>
+        <v>51359</v>
       </c>
       <c r="B246" s="14">
         <v>5</v>
@@ -44672,7 +44676,7 @@
     </row>
     <row r="247" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A247" s="13">
-        <v>44419</v>
+        <v>51359</v>
       </c>
       <c r="B247" s="14">
         <v>6</v>
@@ -44704,7 +44708,7 @@
     </row>
     <row r="248" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A248" s="13">
-        <v>44419</v>
+        <v>51359</v>
       </c>
       <c r="B248" s="14">
         <v>7</v>
@@ -44736,7 +44740,7 @@
     </row>
     <row r="249" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A249" s="13">
-        <v>44419</v>
+        <v>51359</v>
       </c>
       <c r="B249" s="14">
         <v>8</v>
@@ -44768,7 +44772,7 @@
     </row>
     <row r="250" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A250" s="13">
-        <v>44419</v>
+        <v>51359</v>
       </c>
       <c r="B250" s="14">
         <v>9</v>
@@ -44800,7 +44804,7 @@
     </row>
     <row r="251" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A251" s="13">
-        <v>44419</v>
+        <v>51359</v>
       </c>
       <c r="B251" s="14">
         <v>10</v>
@@ -44832,7 +44836,7 @@
     </row>
     <row r="252" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A252" s="13">
-        <v>44419</v>
+        <v>51359</v>
       </c>
       <c r="B252" s="14">
         <v>11</v>
@@ -44864,7 +44868,7 @@
     </row>
     <row r="253" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A253" s="13">
-        <v>44419</v>
+        <v>51359</v>
       </c>
       <c r="B253" s="14">
         <v>12</v>
@@ -44896,7 +44900,7 @@
     </row>
     <row r="254" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A254" s="13">
-        <v>44419</v>
+        <v>51359</v>
       </c>
       <c r="B254" s="14">
         <v>13</v>
@@ -44928,7 +44932,7 @@
     </row>
     <row r="255" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A255" s="13">
-        <v>44419</v>
+        <v>51359</v>
       </c>
       <c r="B255" s="14">
         <v>14</v>
@@ -44960,7 +44964,7 @@
     </row>
     <row r="256" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A256" s="13">
-        <v>44419</v>
+        <v>51359</v>
       </c>
       <c r="B256" s="14">
         <v>15</v>
@@ -44992,7 +44996,7 @@
     </row>
     <row r="257" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A257" s="13">
-        <v>44419</v>
+        <v>51359</v>
       </c>
       <c r="B257" s="14">
         <v>16</v>
@@ -45024,7 +45028,7 @@
     </row>
     <row r="258" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A258" s="13">
-        <v>44419</v>
+        <v>51359</v>
       </c>
       <c r="B258" s="14">
         <v>17</v>
@@ -45056,7 +45060,7 @@
     </row>
     <row r="259" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A259" s="13">
-        <v>44419</v>
+        <v>51359</v>
       </c>
       <c r="B259" s="14">
         <v>18</v>
@@ -45088,7 +45092,7 @@
     </row>
     <row r="260" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A260" s="13">
-        <v>44419</v>
+        <v>51359</v>
       </c>
       <c r="B260" s="14">
         <v>19</v>
@@ -45120,7 +45124,7 @@
     </row>
     <row r="261" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A261" s="13">
-        <v>44419</v>
+        <v>51359</v>
       </c>
       <c r="B261" s="14">
         <v>20</v>
@@ -45152,7 +45156,7 @@
     </row>
     <row r="262" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A262" s="13">
-        <v>44419</v>
+        <v>51359</v>
       </c>
       <c r="B262" s="14">
         <v>21</v>
@@ -45184,7 +45188,7 @@
     </row>
     <row r="263" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A263" s="13">
-        <v>44419</v>
+        <v>51359</v>
       </c>
       <c r="B263" s="14">
         <v>22</v>
@@ -45216,7 +45220,7 @@
     </row>
     <row r="264" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A264" s="13">
-        <v>44419</v>
+        <v>51359</v>
       </c>
       <c r="B264" s="14">
         <v>23</v>
@@ -45248,7 +45252,7 @@
     </row>
     <row r="265" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A265" s="13">
-        <v>44419</v>
+        <v>51359</v>
       </c>
       <c r="B265" s="14">
         <v>24</v>
@@ -45280,7 +45284,7 @@
     </row>
     <row r="266" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A266" s="13">
-        <v>44420</v>
+        <v>51360</v>
       </c>
       <c r="B266" s="14">
         <v>1</v>
@@ -45312,7 +45316,7 @@
     </row>
     <row r="267" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A267" s="13">
-        <v>44420</v>
+        <v>51360</v>
       </c>
       <c r="B267" s="14">
         <v>2</v>
@@ -45344,7 +45348,7 @@
     </row>
     <row r="268" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A268" s="13">
-        <v>44420</v>
+        <v>51360</v>
       </c>
       <c r="B268" s="14">
         <v>3</v>
@@ -45376,7 +45380,7 @@
     </row>
     <row r="269" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A269" s="13">
-        <v>44420</v>
+        <v>51360</v>
       </c>
       <c r="B269" s="14">
         <v>4</v>
@@ -45408,7 +45412,7 @@
     </row>
     <row r="270" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A270" s="13">
-        <v>44420</v>
+        <v>51360</v>
       </c>
       <c r="B270" s="14">
         <v>5</v>
@@ -45440,7 +45444,7 @@
     </row>
     <row r="271" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A271" s="13">
-        <v>44420</v>
+        <v>51360</v>
       </c>
       <c r="B271" s="14">
         <v>6</v>
@@ -45472,7 +45476,7 @@
     </row>
     <row r="272" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A272" s="13">
-        <v>44420</v>
+        <v>51360</v>
       </c>
       <c r="B272" s="14">
         <v>7</v>
@@ -45504,7 +45508,7 @@
     </row>
     <row r="273" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A273" s="13">
-        <v>44420</v>
+        <v>51360</v>
       </c>
       <c r="B273" s="14">
         <v>8</v>
@@ -45536,7 +45540,7 @@
     </row>
     <row r="274" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A274" s="13">
-        <v>44420</v>
+        <v>51360</v>
       </c>
       <c r="B274" s="14">
         <v>9</v>
@@ -45568,7 +45572,7 @@
     </row>
     <row r="275" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A275" s="13">
-        <v>44420</v>
+        <v>51360</v>
       </c>
       <c r="B275" s="14">
         <v>10</v>
@@ -45600,7 +45604,7 @@
     </row>
     <row r="276" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A276" s="13">
-        <v>44420</v>
+        <v>51360</v>
       </c>
       <c r="B276" s="14">
         <v>11</v>
@@ -45632,7 +45636,7 @@
     </row>
     <row r="277" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A277" s="13">
-        <v>44420</v>
+        <v>51360</v>
       </c>
       <c r="B277" s="14">
         <v>12</v>
@@ -45664,7 +45668,7 @@
     </row>
     <row r="278" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A278" s="13">
-        <v>44420</v>
+        <v>51360</v>
       </c>
       <c r="B278" s="14">
         <v>13</v>
@@ -45696,7 +45700,7 @@
     </row>
     <row r="279" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A279" s="13">
-        <v>44420</v>
+        <v>51360</v>
       </c>
       <c r="B279" s="14">
         <v>14</v>
@@ -45728,7 +45732,7 @@
     </row>
     <row r="280" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A280" s="13">
-        <v>44420</v>
+        <v>51360</v>
       </c>
       <c r="B280" s="14">
         <v>15</v>
@@ -45760,7 +45764,7 @@
     </row>
     <row r="281" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A281" s="13">
-        <v>44420</v>
+        <v>51360</v>
       </c>
       <c r="B281" s="14">
         <v>16</v>
@@ -45792,7 +45796,7 @@
     </row>
     <row r="282" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A282" s="13">
-        <v>44420</v>
+        <v>51360</v>
       </c>
       <c r="B282" s="14">
         <v>17</v>
@@ -45824,7 +45828,7 @@
     </row>
     <row r="283" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A283" s="13">
-        <v>44420</v>
+        <v>51360</v>
       </c>
       <c r="B283" s="14">
         <v>18</v>
@@ -45856,7 +45860,7 @@
     </row>
     <row r="284" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A284" s="13">
-        <v>44420</v>
+        <v>51360</v>
       </c>
       <c r="B284" s="14">
         <v>19</v>
@@ -45888,7 +45892,7 @@
     </row>
     <row r="285" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A285" s="13">
-        <v>44420</v>
+        <v>51360</v>
       </c>
       <c r="B285" s="14">
         <v>20</v>
@@ -45920,7 +45924,7 @@
     </row>
     <row r="286" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A286" s="13">
-        <v>44420</v>
+        <v>51360</v>
       </c>
       <c r="B286" s="14">
         <v>21</v>
@@ -45952,7 +45956,7 @@
     </row>
     <row r="287" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A287" s="13">
-        <v>44420</v>
+        <v>51360</v>
       </c>
       <c r="B287" s="14">
         <v>22</v>
@@ -45984,7 +45988,7 @@
     </row>
     <row r="288" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A288" s="13">
-        <v>44420</v>
+        <v>51360</v>
       </c>
       <c r="B288" s="14">
         <v>23</v>
@@ -46016,7 +46020,7 @@
     </row>
     <row r="289" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A289" s="13">
-        <v>44420</v>
+        <v>51360</v>
       </c>
       <c r="B289" s="14">
         <v>24</v>
@@ -46048,7 +46052,7 @@
     </row>
     <row r="290" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A290" s="13">
-        <v>44421</v>
+        <v>51361</v>
       </c>
       <c r="B290" s="14">
         <v>1</v>
@@ -46080,7 +46084,7 @@
     </row>
     <row r="291" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A291" s="13">
-        <v>44421</v>
+        <v>51361</v>
       </c>
       <c r="B291" s="14">
         <v>2</v>
@@ -46112,7 +46116,7 @@
     </row>
     <row r="292" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A292" s="13">
-        <v>44421</v>
+        <v>51361</v>
       </c>
       <c r="B292" s="14">
         <v>3</v>
@@ -46144,7 +46148,7 @@
     </row>
     <row r="293" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A293" s="13">
-        <v>44421</v>
+        <v>51361</v>
       </c>
       <c r="B293" s="14">
         <v>4</v>
@@ -46176,7 +46180,7 @@
     </row>
     <row r="294" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A294" s="13">
-        <v>44421</v>
+        <v>51361</v>
       </c>
       <c r="B294" s="14">
         <v>5</v>
@@ -46208,7 +46212,7 @@
     </row>
     <row r="295" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A295" s="13">
-        <v>44421</v>
+        <v>51361</v>
       </c>
       <c r="B295" s="14">
         <v>6</v>
@@ -46240,7 +46244,7 @@
     </row>
     <row r="296" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A296" s="13">
-        <v>44421</v>
+        <v>51361</v>
       </c>
       <c r="B296" s="14">
         <v>7</v>
@@ -46272,7 +46276,7 @@
     </row>
     <row r="297" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A297" s="13">
-        <v>44421</v>
+        <v>51361</v>
       </c>
       <c r="B297" s="14">
         <v>8</v>
@@ -46304,7 +46308,7 @@
     </row>
     <row r="298" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A298" s="13">
-        <v>44421</v>
+        <v>51361</v>
       </c>
       <c r="B298" s="14">
         <v>9</v>
@@ -46336,7 +46340,7 @@
     </row>
     <row r="299" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A299" s="13">
-        <v>44421</v>
+        <v>51361</v>
       </c>
       <c r="B299" s="14">
         <v>10</v>
@@ -46368,7 +46372,7 @@
     </row>
     <row r="300" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A300" s="13">
-        <v>44421</v>
+        <v>51361</v>
       </c>
       <c r="B300" s="14">
         <v>11</v>
@@ -46400,7 +46404,7 @@
     </row>
     <row r="301" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A301" s="13">
-        <v>44421</v>
+        <v>51361</v>
       </c>
       <c r="B301" s="14">
         <v>12</v>
@@ -46432,7 +46436,7 @@
     </row>
     <row r="302" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A302" s="13">
-        <v>44421</v>
+        <v>51361</v>
       </c>
       <c r="B302" s="14">
         <v>13</v>
@@ -46464,7 +46468,7 @@
     </row>
     <row r="303" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A303" s="13">
-        <v>44421</v>
+        <v>51361</v>
       </c>
       <c r="B303" s="14">
         <v>14</v>
@@ -46496,7 +46500,7 @@
     </row>
     <row r="304" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A304" s="13">
-        <v>44421</v>
+        <v>51361</v>
       </c>
       <c r="B304" s="14">
         <v>15</v>
@@ -46528,7 +46532,7 @@
     </row>
     <row r="305" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A305" s="13">
-        <v>44421</v>
+        <v>51361</v>
       </c>
       <c r="B305" s="14">
         <v>16</v>
@@ -46560,7 +46564,7 @@
     </row>
     <row r="306" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A306" s="13">
-        <v>44421</v>
+        <v>51361</v>
       </c>
       <c r="B306" s="14">
         <v>17</v>
@@ -46592,7 +46596,7 @@
     </row>
     <row r="307" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A307" s="13">
-        <v>44421</v>
+        <v>51361</v>
       </c>
       <c r="B307" s="14">
         <v>18</v>
@@ -46624,7 +46628,7 @@
     </row>
     <row r="308" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A308" s="13">
-        <v>44421</v>
+        <v>51361</v>
       </c>
       <c r="B308" s="14">
         <v>19</v>
@@ -46656,7 +46660,7 @@
     </row>
     <row r="309" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A309" s="13">
-        <v>44421</v>
+        <v>51361</v>
       </c>
       <c r="B309" s="14">
         <v>20</v>
@@ -46688,7 +46692,7 @@
     </row>
     <row r="310" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A310" s="13">
-        <v>44421</v>
+        <v>51361</v>
       </c>
       <c r="B310" s="14">
         <v>21</v>
@@ -46720,7 +46724,7 @@
     </row>
     <row r="311" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A311" s="13">
-        <v>44421</v>
+        <v>51361</v>
       </c>
       <c r="B311" s="14">
         <v>22</v>
@@ -46752,7 +46756,7 @@
     </row>
     <row r="312" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A312" s="13">
-        <v>44421</v>
+        <v>51361</v>
       </c>
       <c r="B312" s="14">
         <v>23</v>
@@ -46784,7 +46788,7 @@
     </row>
     <row r="313" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A313" s="13">
-        <v>44421</v>
+        <v>51361</v>
       </c>
       <c r="B313" s="14">
         <v>24</v>
@@ -46816,7 +46820,7 @@
     </row>
     <row r="314" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A314" s="13">
-        <v>44422</v>
+        <v>51362</v>
       </c>
       <c r="B314" s="14">
         <v>1</v>
@@ -46848,7 +46852,7 @@
     </row>
     <row r="315" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A315" s="13">
-        <v>44422</v>
+        <v>51362</v>
       </c>
       <c r="B315" s="14">
         <v>2</v>
@@ -46880,7 +46884,7 @@
     </row>
     <row r="316" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A316" s="13">
-        <v>44422</v>
+        <v>51362</v>
       </c>
       <c r="B316" s="14">
         <v>3</v>
@@ -46912,7 +46916,7 @@
     </row>
     <row r="317" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A317" s="13">
-        <v>44422</v>
+        <v>51362</v>
       </c>
       <c r="B317" s="14">
         <v>4</v>
@@ -46944,7 +46948,7 @@
     </row>
     <row r="318" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A318" s="13">
-        <v>44422</v>
+        <v>51362</v>
       </c>
       <c r="B318" s="14">
         <v>5</v>
@@ -46976,7 +46980,7 @@
     </row>
     <row r="319" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A319" s="13">
-        <v>44422</v>
+        <v>51362</v>
       </c>
       <c r="B319" s="14">
         <v>6</v>
@@ -47008,7 +47012,7 @@
     </row>
     <row r="320" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A320" s="13">
-        <v>44422</v>
+        <v>51362</v>
       </c>
       <c r="B320" s="14">
         <v>7</v>
@@ -47040,7 +47044,7 @@
     </row>
     <row r="321" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A321" s="13">
-        <v>44422</v>
+        <v>51362</v>
       </c>
       <c r="B321" s="14">
         <v>8</v>
@@ -47072,7 +47076,7 @@
     </row>
     <row r="322" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A322" s="13">
-        <v>44422</v>
+        <v>51362</v>
       </c>
       <c r="B322" s="14">
         <v>9</v>
@@ -47104,7 +47108,7 @@
     </row>
     <row r="323" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A323" s="13">
-        <v>44422</v>
+        <v>51362</v>
       </c>
       <c r="B323" s="14">
         <v>10</v>
@@ -47136,7 +47140,7 @@
     </row>
     <row r="324" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A324" s="13">
-        <v>44422</v>
+        <v>51362</v>
       </c>
       <c r="B324" s="14">
         <v>11</v>
@@ -47168,7 +47172,7 @@
     </row>
     <row r="325" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A325" s="13">
-        <v>44422</v>
+        <v>51362</v>
       </c>
       <c r="B325" s="14">
         <v>12</v>
@@ -47200,7 +47204,7 @@
     </row>
     <row r="326" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A326" s="13">
-        <v>44422</v>
+        <v>51362</v>
       </c>
       <c r="B326" s="14">
         <v>13</v>
@@ -47232,7 +47236,7 @@
     </row>
     <row r="327" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A327" s="13">
-        <v>44422</v>
+        <v>51362</v>
       </c>
       <c r="B327" s="14">
         <v>14</v>
@@ -47264,7 +47268,7 @@
     </row>
     <row r="328" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A328" s="13">
-        <v>44422</v>
+        <v>51362</v>
       </c>
       <c r="B328" s="14">
         <v>15</v>
@@ -47296,7 +47300,7 @@
     </row>
     <row r="329" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A329" s="13">
-        <v>44422</v>
+        <v>51362</v>
       </c>
       <c r="B329" s="14">
         <v>16</v>
@@ -47328,7 +47332,7 @@
     </row>
     <row r="330" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A330" s="13">
-        <v>44422</v>
+        <v>51362</v>
       </c>
       <c r="B330" s="14">
         <v>17</v>
@@ -47360,7 +47364,7 @@
     </row>
     <row r="331" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A331" s="13">
-        <v>44422</v>
+        <v>51362</v>
       </c>
       <c r="B331" s="14">
         <v>18</v>
@@ -47392,7 +47396,7 @@
     </row>
     <row r="332" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A332" s="13">
-        <v>44422</v>
+        <v>51362</v>
       </c>
       <c r="B332" s="14">
         <v>19</v>
@@ -47424,7 +47428,7 @@
     </row>
     <row r="333" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A333" s="13">
-        <v>44422</v>
+        <v>51362</v>
       </c>
       <c r="B333" s="14">
         <v>20</v>
@@ -47456,7 +47460,7 @@
     </row>
     <row r="334" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A334" s="13">
-        <v>44422</v>
+        <v>51362</v>
       </c>
       <c r="B334" s="14">
         <v>21</v>
@@ -47488,7 +47492,7 @@
     </row>
     <row r="335" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A335" s="13">
-        <v>44422</v>
+        <v>51362</v>
       </c>
       <c r="B335" s="14">
         <v>22</v>
@@ -47520,7 +47524,7 @@
     </row>
     <row r="336" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A336" s="13">
-        <v>44422</v>
+        <v>51362</v>
       </c>
       <c r="B336" s="14">
         <v>23</v>
@@ -47552,7 +47556,7 @@
     </row>
     <row r="337" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A337" s="13">
-        <v>44422</v>
+        <v>51362</v>
       </c>
       <c r="B337" s="14">
         <v>24</v>
@@ -47584,7 +47588,7 @@
     </row>
     <row r="338" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A338" s="13">
-        <v>44423</v>
+        <v>51363</v>
       </c>
       <c r="B338" s="14">
         <v>1</v>
@@ -47616,7 +47620,7 @@
     </row>
     <row r="339" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A339" s="13">
-        <v>44423</v>
+        <v>51363</v>
       </c>
       <c r="B339" s="14">
         <v>2</v>
@@ -47648,7 +47652,7 @@
     </row>
     <row r="340" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A340" s="13">
-        <v>44423</v>
+        <v>51363</v>
       </c>
       <c r="B340" s="14">
         <v>3</v>
@@ -47680,7 +47684,7 @@
     </row>
     <row r="341" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A341" s="13">
-        <v>44423</v>
+        <v>51363</v>
       </c>
       <c r="B341" s="14">
         <v>4</v>
@@ -47712,7 +47716,7 @@
     </row>
     <row r="342" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A342" s="13">
-        <v>44423</v>
+        <v>51363</v>
       </c>
       <c r="B342" s="14">
         <v>5</v>
@@ -47744,7 +47748,7 @@
     </row>
     <row r="343" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A343" s="13">
-        <v>44423</v>
+        <v>51363</v>
       </c>
       <c r="B343" s="14">
         <v>6</v>
@@ -47776,7 +47780,7 @@
     </row>
     <row r="344" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A344" s="13">
-        <v>44423</v>
+        <v>51363</v>
       </c>
       <c r="B344" s="14">
         <v>7</v>
@@ -47808,7 +47812,7 @@
     </row>
     <row r="345" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A345" s="13">
-        <v>44423</v>
+        <v>51363</v>
       </c>
       <c r="B345" s="14">
         <v>8</v>
@@ -47840,7 +47844,7 @@
     </row>
     <row r="346" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A346" s="13">
-        <v>44423</v>
+        <v>51363</v>
       </c>
       <c r="B346" s="14">
         <v>9</v>
@@ -47872,7 +47876,7 @@
     </row>
     <row r="347" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A347" s="13">
-        <v>44423</v>
+        <v>51363</v>
       </c>
       <c r="B347" s="14">
         <v>10</v>
@@ -47904,7 +47908,7 @@
     </row>
     <row r="348" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A348" s="13">
-        <v>44423</v>
+        <v>51363</v>
       </c>
       <c r="B348" s="14">
         <v>11</v>
@@ -47936,7 +47940,7 @@
     </row>
     <row r="349" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A349" s="13">
-        <v>44423</v>
+        <v>51363</v>
       </c>
       <c r="B349" s="14">
         <v>12</v>
@@ -47968,7 +47972,7 @@
     </row>
     <row r="350" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A350" s="13">
-        <v>44423</v>
+        <v>51363</v>
       </c>
       <c r="B350" s="14">
         <v>13</v>
@@ -48000,7 +48004,7 @@
     </row>
     <row r="351" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A351" s="13">
-        <v>44423</v>
+        <v>51363</v>
       </c>
       <c r="B351" s="14">
         <v>14</v>
@@ -48032,7 +48036,7 @@
     </row>
     <row r="352" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A352" s="13">
-        <v>44423</v>
+        <v>51363</v>
       </c>
       <c r="B352" s="14">
         <v>15</v>
@@ -48064,7 +48068,7 @@
     </row>
     <row r="353" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A353" s="13">
-        <v>44423</v>
+        <v>51363</v>
       </c>
       <c r="B353" s="14">
         <v>16</v>
@@ -48096,7 +48100,7 @@
     </row>
     <row r="354" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A354" s="13">
-        <v>44423</v>
+        <v>51363</v>
       </c>
       <c r="B354" s="14">
         <v>17</v>
@@ -48128,7 +48132,7 @@
     </row>
     <row r="355" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A355" s="13">
-        <v>44423</v>
+        <v>51363</v>
       </c>
       <c r="B355" s="14">
         <v>18</v>
@@ -48160,7 +48164,7 @@
     </row>
     <row r="356" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A356" s="13">
-        <v>44423</v>
+        <v>51363</v>
       </c>
       <c r="B356" s="14">
         <v>19</v>
@@ -48192,7 +48196,7 @@
     </row>
     <row r="357" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A357" s="13">
-        <v>44423</v>
+        <v>51363</v>
       </c>
       <c r="B357" s="14">
         <v>20</v>
@@ -48224,7 +48228,7 @@
     </row>
     <row r="358" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A358" s="13">
-        <v>44423</v>
+        <v>51363</v>
       </c>
       <c r="B358" s="14">
         <v>21</v>
@@ -48256,7 +48260,7 @@
     </row>
     <row r="359" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A359" s="13">
-        <v>44423</v>
+        <v>51363</v>
       </c>
       <c r="B359" s="14">
         <v>22</v>
@@ -48288,7 +48292,7 @@
     </row>
     <row r="360" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A360" s="13">
-        <v>44423</v>
+        <v>51363</v>
       </c>
       <c r="B360" s="14">
         <v>23</v>
@@ -48320,7 +48324,7 @@
     </row>
     <row r="361" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A361" s="13">
-        <v>44423</v>
+        <v>51363</v>
       </c>
       <c r="B361" s="14">
         <v>24</v>
@@ -48352,7 +48356,7 @@
     </row>
     <row r="362" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A362" s="13">
-        <v>44424</v>
+        <v>51364</v>
       </c>
       <c r="B362" s="14">
         <v>1</v>
@@ -48384,7 +48388,7 @@
     </row>
     <row r="363" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A363" s="13">
-        <v>44424</v>
+        <v>51364</v>
       </c>
       <c r="B363" s="14">
         <v>2</v>
@@ -48416,7 +48420,7 @@
     </row>
     <row r="364" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A364" s="13">
-        <v>44424</v>
+        <v>51364</v>
       </c>
       <c r="B364" s="14">
         <v>3</v>
@@ -48448,7 +48452,7 @@
     </row>
     <row r="365" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A365" s="13">
-        <v>44424</v>
+        <v>51364</v>
       </c>
       <c r="B365" s="14">
         <v>4</v>
@@ -48480,7 +48484,7 @@
     </row>
     <row r="366" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A366" s="13">
-        <v>44424</v>
+        <v>51364</v>
       </c>
       <c r="B366" s="14">
         <v>5</v>
@@ -48512,7 +48516,7 @@
     </row>
     <row r="367" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A367" s="13">
-        <v>44424</v>
+        <v>51364</v>
       </c>
       <c r="B367" s="14">
         <v>6</v>
@@ -48544,7 +48548,7 @@
     </row>
     <row r="368" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A368" s="13">
-        <v>44424</v>
+        <v>51364</v>
       </c>
       <c r="B368" s="14">
         <v>7</v>
@@ -48576,7 +48580,7 @@
     </row>
     <row r="369" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A369" s="13">
-        <v>44424</v>
+        <v>51364</v>
       </c>
       <c r="B369" s="14">
         <v>8</v>
@@ -48608,7 +48612,7 @@
     </row>
     <row r="370" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A370" s="13">
-        <v>44424</v>
+        <v>51364</v>
       </c>
       <c r="B370" s="14">
         <v>9</v>
@@ -48640,7 +48644,7 @@
     </row>
     <row r="371" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A371" s="13">
-        <v>44424</v>
+        <v>51364</v>
       </c>
       <c r="B371" s="14">
         <v>10</v>
@@ -48672,7 +48676,7 @@
     </row>
     <row r="372" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A372" s="13">
-        <v>44424</v>
+        <v>51364</v>
       </c>
       <c r="B372" s="14">
         <v>11</v>
@@ -48704,7 +48708,7 @@
     </row>
     <row r="373" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A373" s="13">
-        <v>44424</v>
+        <v>51364</v>
       </c>
       <c r="B373" s="14">
         <v>12</v>
@@ -48736,7 +48740,7 @@
     </row>
     <row r="374" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A374" s="13">
-        <v>44424</v>
+        <v>51364</v>
       </c>
       <c r="B374" s="14">
         <v>13</v>
@@ -48768,7 +48772,7 @@
     </row>
     <row r="375" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A375" s="13">
-        <v>44424</v>
+        <v>51364</v>
       </c>
       <c r="B375" s="14">
         <v>14</v>
@@ -48800,7 +48804,7 @@
     </row>
     <row r="376" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A376" s="13">
-        <v>44424</v>
+        <v>51364</v>
       </c>
       <c r="B376" s="14">
         <v>15</v>
@@ -48832,7 +48836,7 @@
     </row>
     <row r="377" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A377" s="13">
-        <v>44424</v>
+        <v>51364</v>
       </c>
       <c r="B377" s="14">
         <v>16</v>
@@ -48864,7 +48868,7 @@
     </row>
     <row r="378" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A378" s="13">
-        <v>44424</v>
+        <v>51364</v>
       </c>
       <c r="B378" s="14">
         <v>17</v>
@@ -48896,7 +48900,7 @@
     </row>
     <row r="379" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A379" s="13">
-        <v>44424</v>
+        <v>51364</v>
       </c>
       <c r="B379" s="14">
         <v>18</v>
@@ -48928,7 +48932,7 @@
     </row>
     <row r="380" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A380" s="13">
-        <v>44424</v>
+        <v>51364</v>
       </c>
       <c r="B380" s="14">
         <v>19</v>
@@ -48960,7 +48964,7 @@
     </row>
     <row r="381" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A381" s="13">
-        <v>44424</v>
+        <v>51364</v>
       </c>
       <c r="B381" s="14">
         <v>20</v>
@@ -48992,7 +48996,7 @@
     </row>
     <row r="382" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A382" s="13">
-        <v>44424</v>
+        <v>51364</v>
       </c>
       <c r="B382" s="14">
         <v>21</v>
@@ -49024,7 +49028,7 @@
     </row>
     <row r="383" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A383" s="13">
-        <v>44424</v>
+        <v>51364</v>
       </c>
       <c r="B383" s="14">
         <v>22</v>
@@ -49056,7 +49060,7 @@
     </row>
     <row r="384" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A384" s="13">
-        <v>44424</v>
+        <v>51364</v>
       </c>
       <c r="B384" s="14">
         <v>23</v>
@@ -49088,7 +49092,7 @@
     </row>
     <row r="385" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A385" s="13">
-        <v>44424</v>
+        <v>51364</v>
       </c>
       <c r="B385" s="14">
         <v>24</v>
@@ -49120,7 +49124,7 @@
     </row>
     <row r="386" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A386" s="13">
-        <v>44425</v>
+        <v>51365</v>
       </c>
       <c r="B386" s="14">
         <v>1</v>
@@ -49152,7 +49156,7 @@
     </row>
     <row r="387" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A387" s="13">
-        <v>44425</v>
+        <v>51365</v>
       </c>
       <c r="B387" s="14">
         <v>2</v>
@@ -49184,7 +49188,7 @@
     </row>
     <row r="388" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A388" s="13">
-        <v>44425</v>
+        <v>51365</v>
       </c>
       <c r="B388" s="14">
         <v>3</v>
@@ -49216,7 +49220,7 @@
     </row>
     <row r="389" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A389" s="13">
-        <v>44425</v>
+        <v>51365</v>
       </c>
       <c r="B389" s="14">
         <v>4</v>
@@ -49248,7 +49252,7 @@
     </row>
     <row r="390" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A390" s="13">
-        <v>44425</v>
+        <v>51365</v>
       </c>
       <c r="B390" s="14">
         <v>5</v>
@@ -49280,7 +49284,7 @@
     </row>
     <row r="391" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A391" s="13">
-        <v>44425</v>
+        <v>51365</v>
       </c>
       <c r="B391" s="14">
         <v>6</v>
@@ -49312,7 +49316,7 @@
     </row>
     <row r="392" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A392" s="13">
-        <v>44425</v>
+        <v>51365</v>
       </c>
       <c r="B392" s="14">
         <v>7</v>
@@ -49344,7 +49348,7 @@
     </row>
     <row r="393" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A393" s="13">
-        <v>44425</v>
+        <v>51365</v>
       </c>
       <c r="B393" s="14">
         <v>8</v>
@@ -49376,7 +49380,7 @@
     </row>
     <row r="394" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A394" s="13">
-        <v>44425</v>
+        <v>51365</v>
       </c>
       <c r="B394" s="14">
         <v>9</v>
@@ -49408,7 +49412,7 @@
     </row>
     <row r="395" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A395" s="13">
-        <v>44425</v>
+        <v>51365</v>
       </c>
       <c r="B395" s="14">
         <v>10</v>
@@ -49440,7 +49444,7 @@
     </row>
     <row r="396" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A396" s="13">
-        <v>44425</v>
+        <v>51365</v>
       </c>
       <c r="B396" s="14">
         <v>11</v>
@@ -49472,7 +49476,7 @@
     </row>
     <row r="397" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A397" s="13">
-        <v>44425</v>
+        <v>51365</v>
       </c>
       <c r="B397" s="14">
         <v>12</v>
@@ -49504,7 +49508,7 @@
     </row>
     <row r="398" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A398" s="13">
-        <v>44425</v>
+        <v>51365</v>
       </c>
       <c r="B398" s="14">
         <v>13</v>
@@ -49536,7 +49540,7 @@
     </row>
     <row r="399" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A399" s="13">
-        <v>44425</v>
+        <v>51365</v>
       </c>
       <c r="B399" s="14">
         <v>14</v>
@@ -49568,7 +49572,7 @@
     </row>
     <row r="400" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A400" s="13">
-        <v>44425</v>
+        <v>51365</v>
       </c>
       <c r="B400" s="14">
         <v>15</v>
@@ -49600,7 +49604,7 @@
     </row>
     <row r="401" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A401" s="13">
-        <v>44425</v>
+        <v>51365</v>
       </c>
       <c r="B401" s="14">
         <v>16</v>
@@ -49632,7 +49636,7 @@
     </row>
     <row r="402" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A402" s="13">
-        <v>44425</v>
+        <v>51365</v>
       </c>
       <c r="B402" s="14">
         <v>17</v>
@@ -49664,7 +49668,7 @@
     </row>
     <row r="403" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A403" s="13">
-        <v>44425</v>
+        <v>51365</v>
       </c>
       <c r="B403" s="14">
         <v>18</v>
@@ -49696,7 +49700,7 @@
     </row>
     <row r="404" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A404" s="13">
-        <v>44425</v>
+        <v>51365</v>
       </c>
       <c r="B404" s="14">
         <v>19</v>
@@ -49728,7 +49732,7 @@
     </row>
     <row r="405" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A405" s="13">
-        <v>44425</v>
+        <v>51365</v>
       </c>
       <c r="B405" s="14">
         <v>20</v>
@@ -49760,7 +49764,7 @@
     </row>
     <row r="406" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A406" s="13">
-        <v>44425</v>
+        <v>51365</v>
       </c>
       <c r="B406" s="14">
         <v>21</v>
@@ -49792,7 +49796,7 @@
     </row>
     <row r="407" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A407" s="13">
-        <v>44425</v>
+        <v>51365</v>
       </c>
       <c r="B407" s="14">
         <v>22</v>
@@ -49824,7 +49828,7 @@
     </row>
     <row r="408" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A408" s="13">
-        <v>44425</v>
+        <v>51365</v>
       </c>
       <c r="B408" s="14">
         <v>23</v>
@@ -49856,7 +49860,7 @@
     </row>
     <row r="409" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A409" s="13">
-        <v>44425</v>
+        <v>51365</v>
       </c>
       <c r="B409" s="14">
         <v>24</v>
@@ -49888,7 +49892,7 @@
     </row>
     <row r="410" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A410" s="13">
-        <v>44426</v>
+        <v>51366</v>
       </c>
       <c r="B410" s="14">
         <v>1</v>
@@ -49920,7 +49924,7 @@
     </row>
     <row r="411" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A411" s="13">
-        <v>44426</v>
+        <v>51366</v>
       </c>
       <c r="B411" s="14">
         <v>2</v>
@@ -49952,7 +49956,7 @@
     </row>
     <row r="412" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A412" s="13">
-        <v>44426</v>
+        <v>51366</v>
       </c>
       <c r="B412" s="14">
         <v>3</v>
@@ -49984,7 +49988,7 @@
     </row>
     <row r="413" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A413" s="13">
-        <v>44426</v>
+        <v>51366</v>
       </c>
       <c r="B413" s="14">
         <v>4</v>
@@ -50016,7 +50020,7 @@
     </row>
     <row r="414" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A414" s="13">
-        <v>44426</v>
+        <v>51366</v>
       </c>
       <c r="B414" s="14">
         <v>5</v>
@@ -50048,7 +50052,7 @@
     </row>
     <row r="415" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A415" s="13">
-        <v>44426</v>
+        <v>51366</v>
       </c>
       <c r="B415" s="14">
         <v>6</v>
@@ -50080,7 +50084,7 @@
     </row>
     <row r="416" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A416" s="13">
-        <v>44426</v>
+        <v>51366</v>
       </c>
       <c r="B416" s="14">
         <v>7</v>
@@ -50112,7 +50116,7 @@
     </row>
     <row r="417" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A417" s="13">
-        <v>44426</v>
+        <v>51366</v>
       </c>
       <c r="B417" s="14">
         <v>8</v>
@@ -50144,7 +50148,7 @@
     </row>
     <row r="418" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A418" s="13">
-        <v>44426</v>
+        <v>51366</v>
       </c>
       <c r="B418" s="14">
         <v>9</v>
@@ -50176,7 +50180,7 @@
     </row>
     <row r="419" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A419" s="13">
-        <v>44426</v>
+        <v>51366</v>
       </c>
       <c r="B419" s="14">
         <v>10</v>
@@ -50208,7 +50212,7 @@
     </row>
     <row r="420" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A420" s="13">
-        <v>44426</v>
+        <v>51366</v>
       </c>
       <c r="B420" s="14">
         <v>11</v>
@@ -50240,7 +50244,7 @@
     </row>
     <row r="421" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A421" s="13">
-        <v>44426</v>
+        <v>51366</v>
       </c>
       <c r="B421" s="14">
         <v>12</v>
@@ -50272,7 +50276,7 @@
     </row>
     <row r="422" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A422" s="13">
-        <v>44426</v>
+        <v>51366</v>
       </c>
       <c r="B422" s="14">
         <v>13</v>
@@ -50304,7 +50308,7 @@
     </row>
     <row r="423" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A423" s="13">
-        <v>44426</v>
+        <v>51366</v>
       </c>
       <c r="B423" s="14">
         <v>14</v>
@@ -50336,7 +50340,7 @@
     </row>
     <row r="424" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A424" s="13">
-        <v>44426</v>
+        <v>51366</v>
       </c>
       <c r="B424" s="14">
         <v>15</v>
@@ -50368,7 +50372,7 @@
     </row>
     <row r="425" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A425" s="13">
-        <v>44426</v>
+        <v>51366</v>
       </c>
       <c r="B425" s="14">
         <v>16</v>
@@ -50400,7 +50404,7 @@
     </row>
     <row r="426" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A426" s="13">
-        <v>44426</v>
+        <v>51366</v>
       </c>
       <c r="B426" s="14">
         <v>17</v>
@@ -50432,7 +50436,7 @@
     </row>
     <row r="427" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A427" s="13">
-        <v>44426</v>
+        <v>51366</v>
       </c>
       <c r="B427" s="14">
         <v>18</v>
@@ -50464,7 +50468,7 @@
     </row>
     <row r="428" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A428" s="13">
-        <v>44426</v>
+        <v>51366</v>
       </c>
       <c r="B428" s="14">
         <v>19</v>
@@ -50496,7 +50500,7 @@
     </row>
     <row r="429" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A429" s="13">
-        <v>44426</v>
+        <v>51366</v>
       </c>
       <c r="B429" s="14">
         <v>20</v>
@@ -50528,7 +50532,7 @@
     </row>
     <row r="430" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A430" s="13">
-        <v>44426</v>
+        <v>51366</v>
       </c>
       <c r="B430" s="14">
         <v>21</v>
@@ -50560,7 +50564,7 @@
     </row>
     <row r="431" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A431" s="13">
-        <v>44426</v>
+        <v>51366</v>
       </c>
       <c r="B431" s="14">
         <v>22</v>
@@ -50592,7 +50596,7 @@
     </row>
     <row r="432" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A432" s="13">
-        <v>44426</v>
+        <v>51366</v>
       </c>
       <c r="B432" s="14">
         <v>23</v>
@@ -50624,7 +50628,7 @@
     </row>
     <row r="433" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A433" s="13">
-        <v>44426</v>
+        <v>51366</v>
       </c>
       <c r="B433" s="14">
         <v>24</v>
@@ -50656,7 +50660,7 @@
     </row>
     <row r="434" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A434" s="13">
-        <v>44427</v>
+        <v>51367</v>
       </c>
       <c r="B434" s="14">
         <v>1</v>
@@ -50688,7 +50692,7 @@
     </row>
     <row r="435" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A435" s="13">
-        <v>44427</v>
+        <v>51367</v>
       </c>
       <c r="B435" s="14">
         <v>2</v>
@@ -50720,7 +50724,7 @@
     </row>
     <row r="436" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A436" s="13">
-        <v>44427</v>
+        <v>51367</v>
       </c>
       <c r="B436" s="14">
         <v>3</v>
@@ -50752,7 +50756,7 @@
     </row>
     <row r="437" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A437" s="13">
-        <v>44427</v>
+        <v>51367</v>
       </c>
       <c r="B437" s="14">
         <v>4</v>
@@ -50784,7 +50788,7 @@
     </row>
     <row r="438" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A438" s="13">
-        <v>44427</v>
+        <v>51367</v>
       </c>
       <c r="B438" s="14">
         <v>5</v>
@@ -50816,7 +50820,7 @@
     </row>
     <row r="439" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A439" s="13">
-        <v>44427</v>
+        <v>51367</v>
       </c>
       <c r="B439" s="14">
         <v>6</v>
@@ -50848,7 +50852,7 @@
     </row>
     <row r="440" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A440" s="13">
-        <v>44427</v>
+        <v>51367</v>
       </c>
       <c r="B440" s="14">
         <v>7</v>
@@ -50880,7 +50884,7 @@
     </row>
     <row r="441" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A441" s="13">
-        <v>44427</v>
+        <v>51367</v>
       </c>
       <c r="B441" s="14">
         <v>8</v>
@@ -50912,7 +50916,7 @@
     </row>
     <row r="442" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A442" s="13">
-        <v>44427</v>
+        <v>51367</v>
       </c>
       <c r="B442" s="14">
         <v>9</v>
@@ -50944,7 +50948,7 @@
     </row>
     <row r="443" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A443" s="13">
-        <v>44427</v>
+        <v>51367</v>
       </c>
       <c r="B443" s="14">
         <v>10</v>
@@ -50976,7 +50980,7 @@
     </row>
     <row r="444" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A444" s="13">
-        <v>44427</v>
+        <v>51367</v>
       </c>
       <c r="B444" s="14">
         <v>11</v>
@@ -51008,7 +51012,7 @@
     </row>
     <row r="445" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A445" s="13">
-        <v>44427</v>
+        <v>51367</v>
       </c>
       <c r="B445" s="14">
         <v>12</v>
@@ -51040,7 +51044,7 @@
     </row>
     <row r="446" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A446" s="13">
-        <v>44427</v>
+        <v>51367</v>
       </c>
       <c r="B446" s="14">
         <v>13</v>
@@ -51072,7 +51076,7 @@
     </row>
     <row r="447" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A447" s="13">
-        <v>44427</v>
+        <v>51367</v>
       </c>
       <c r="B447" s="14">
         <v>14</v>
@@ -51104,7 +51108,7 @@
     </row>
     <row r="448" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A448" s="13">
-        <v>44427</v>
+        <v>51367</v>
       </c>
       <c r="B448" s="14">
         <v>15</v>
@@ -51136,7 +51140,7 @@
     </row>
     <row r="449" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A449" s="13">
-        <v>44427</v>
+        <v>51367</v>
       </c>
       <c r="B449" s="14">
         <v>16</v>
@@ -51168,7 +51172,7 @@
     </row>
     <row r="450" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A450" s="13">
-        <v>44427</v>
+        <v>51367</v>
       </c>
       <c r="B450" s="14">
         <v>17</v>
@@ -51200,7 +51204,7 @@
     </row>
     <row r="451" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A451" s="13">
-        <v>44427</v>
+        <v>51367</v>
       </c>
       <c r="B451" s="14">
         <v>18</v>
@@ -51232,7 +51236,7 @@
     </row>
     <row r="452" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A452" s="13">
-        <v>44427</v>
+        <v>51367</v>
       </c>
       <c r="B452" s="14">
         <v>19</v>
@@ -51264,7 +51268,7 @@
     </row>
     <row r="453" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A453" s="13">
-        <v>44427</v>
+        <v>51367</v>
       </c>
       <c r="B453" s="14">
         <v>20</v>
@@ -51296,7 +51300,7 @@
     </row>
     <row r="454" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A454" s="13">
-        <v>44427</v>
+        <v>51367</v>
       </c>
       <c r="B454" s="14">
         <v>21</v>
@@ -51328,7 +51332,7 @@
     </row>
     <row r="455" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A455" s="13">
-        <v>44427</v>
+        <v>51367</v>
       </c>
       <c r="B455" s="14">
         <v>22</v>
@@ -51360,7 +51364,7 @@
     </row>
     <row r="456" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A456" s="13">
-        <v>44427</v>
+        <v>51367</v>
       </c>
       <c r="B456" s="14">
         <v>23</v>
@@ -51392,7 +51396,7 @@
     </row>
     <row r="457" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A457" s="13">
-        <v>44427</v>
+        <v>51367</v>
       </c>
       <c r="B457" s="14">
         <v>24</v>
@@ -51424,7 +51428,7 @@
     </row>
     <row r="458" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A458" s="13">
-        <v>44428</v>
+        <v>51368</v>
       </c>
       <c r="B458" s="14">
         <v>1</v>
@@ -51456,7 +51460,7 @@
     </row>
     <row r="459" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A459" s="13">
-        <v>44428</v>
+        <v>51368</v>
       </c>
       <c r="B459" s="14">
         <v>2</v>
@@ -51488,7 +51492,7 @@
     </row>
     <row r="460" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A460" s="13">
-        <v>44428</v>
+        <v>51368</v>
       </c>
       <c r="B460" s="14">
         <v>3</v>
@@ -51520,7 +51524,7 @@
     </row>
     <row r="461" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A461" s="13">
-        <v>44428</v>
+        <v>51368</v>
       </c>
       <c r="B461" s="14">
         <v>4</v>
@@ -51552,7 +51556,7 @@
     </row>
     <row r="462" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A462" s="13">
-        <v>44428</v>
+        <v>51368</v>
       </c>
       <c r="B462" s="14">
         <v>5</v>
@@ -51584,7 +51588,7 @@
     </row>
     <row r="463" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A463" s="13">
-        <v>44428</v>
+        <v>51368</v>
       </c>
       <c r="B463" s="14">
         <v>6</v>
@@ -51616,7 +51620,7 @@
     </row>
     <row r="464" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A464" s="13">
-        <v>44428</v>
+        <v>51368</v>
       </c>
       <c r="B464" s="14">
         <v>7</v>
@@ -51648,7 +51652,7 @@
     </row>
     <row r="465" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A465" s="13">
-        <v>44428</v>
+        <v>51368</v>
       </c>
       <c r="B465" s="14">
         <v>8</v>
@@ -51680,7 +51684,7 @@
     </row>
     <row r="466" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A466" s="13">
-        <v>44428</v>
+        <v>51368</v>
       </c>
       <c r="B466" s="14">
         <v>9</v>
@@ -51712,7 +51716,7 @@
     </row>
     <row r="467" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A467" s="13">
-        <v>44428</v>
+        <v>51368</v>
       </c>
       <c r="B467" s="14">
         <v>10</v>
@@ -51744,7 +51748,7 @@
     </row>
     <row r="468" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A468" s="13">
-        <v>44428</v>
+        <v>51368</v>
       </c>
       <c r="B468" s="14">
         <v>11</v>
@@ -51776,7 +51780,7 @@
     </row>
     <row r="469" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A469" s="13">
-        <v>44428</v>
+        <v>51368</v>
       </c>
       <c r="B469" s="14">
         <v>12</v>
@@ -51808,7 +51812,7 @@
     </row>
     <row r="470" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A470" s="13">
-        <v>44428</v>
+        <v>51368</v>
       </c>
       <c r="B470" s="14">
         <v>13</v>
@@ -51840,7 +51844,7 @@
     </row>
     <row r="471" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A471" s="13">
-        <v>44428</v>
+        <v>51368</v>
       </c>
       <c r="B471" s="14">
         <v>14</v>
@@ -51872,7 +51876,7 @@
     </row>
     <row r="472" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A472" s="13">
-        <v>44428</v>
+        <v>51368</v>
       </c>
       <c r="B472" s="14">
         <v>15</v>
@@ -51904,7 +51908,7 @@
     </row>
     <row r="473" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A473" s="13">
-        <v>44428</v>
+        <v>51368</v>
       </c>
       <c r="B473" s="14">
         <v>16</v>
@@ -51936,7 +51940,7 @@
     </row>
     <row r="474" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A474" s="13">
-        <v>44428</v>
+        <v>51368</v>
       </c>
       <c r="B474" s="14">
         <v>17</v>
@@ -51968,7 +51972,7 @@
     </row>
     <row r="475" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A475" s="13">
-        <v>44428</v>
+        <v>51368</v>
       </c>
       <c r="B475" s="14">
         <v>18</v>
@@ -52000,7 +52004,7 @@
     </row>
     <row r="476" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A476" s="13">
-        <v>44428</v>
+        <v>51368</v>
       </c>
       <c r="B476" s="14">
         <v>19</v>
@@ -52032,7 +52036,7 @@
     </row>
     <row r="477" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A477" s="13">
-        <v>44428</v>
+        <v>51368</v>
       </c>
       <c r="B477" s="14">
         <v>20</v>
@@ -52064,7 +52068,7 @@
     </row>
     <row r="478" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A478" s="13">
-        <v>44428</v>
+        <v>51368</v>
       </c>
       <c r="B478" s="14">
         <v>21</v>
@@ -52096,7 +52100,7 @@
     </row>
     <row r="479" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A479" s="13">
-        <v>44428</v>
+        <v>51368</v>
       </c>
       <c r="B479" s="14">
         <v>22</v>
@@ -52128,7 +52132,7 @@
     </row>
     <row r="480" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A480" s="13">
-        <v>44428</v>
+        <v>51368</v>
       </c>
       <c r="B480" s="14">
         <v>23</v>
@@ -52160,7 +52164,7 @@
     </row>
     <row r="481" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A481" s="13">
-        <v>44428</v>
+        <v>51368</v>
       </c>
       <c r="B481" s="14">
         <v>24</v>
@@ -52192,7 +52196,7 @@
     </row>
     <row r="482" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A482" s="13">
-        <v>44429</v>
+        <v>51369</v>
       </c>
       <c r="B482" s="14">
         <v>1</v>
@@ -52224,7 +52228,7 @@
     </row>
     <row r="483" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A483" s="13">
-        <v>44429</v>
+        <v>51369</v>
       </c>
       <c r="B483" s="14">
         <v>2</v>
@@ -52256,7 +52260,7 @@
     </row>
     <row r="484" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A484" s="13">
-        <v>44429</v>
+        <v>51369</v>
       </c>
       <c r="B484" s="14">
         <v>3</v>
@@ -52288,7 +52292,7 @@
     </row>
     <row r="485" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A485" s="13">
-        <v>44429</v>
+        <v>51369</v>
       </c>
       <c r="B485" s="14">
         <v>4</v>
@@ -52320,7 +52324,7 @@
     </row>
     <row r="486" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A486" s="13">
-        <v>44429</v>
+        <v>51369</v>
       </c>
       <c r="B486" s="14">
         <v>5</v>
@@ -52352,7 +52356,7 @@
     </row>
     <row r="487" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A487" s="13">
-        <v>44429</v>
+        <v>51369</v>
       </c>
       <c r="B487" s="14">
         <v>6</v>
@@ -52384,7 +52388,7 @@
     </row>
     <row r="488" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A488" s="13">
-        <v>44429</v>
+        <v>51369</v>
       </c>
       <c r="B488" s="14">
         <v>7</v>
@@ -52416,7 +52420,7 @@
     </row>
     <row r="489" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A489" s="13">
-        <v>44429</v>
+        <v>51369</v>
       </c>
       <c r="B489" s="14">
         <v>8</v>
@@ -52448,7 +52452,7 @@
     </row>
     <row r="490" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A490" s="13">
-        <v>44429</v>
+        <v>51369</v>
       </c>
       <c r="B490" s="14">
         <v>9</v>
@@ -52480,7 +52484,7 @@
     </row>
     <row r="491" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A491" s="13">
-        <v>44429</v>
+        <v>51369</v>
       </c>
       <c r="B491" s="14">
         <v>10</v>
@@ -52512,7 +52516,7 @@
     </row>
     <row r="492" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A492" s="13">
-        <v>44429</v>
+        <v>51369</v>
       </c>
       <c r="B492" s="14">
         <v>11</v>
@@ -52544,7 +52548,7 @@
     </row>
     <row r="493" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A493" s="13">
-        <v>44429</v>
+        <v>51369</v>
       </c>
       <c r="B493" s="14">
         <v>12</v>
@@ -52576,7 +52580,7 @@
     </row>
     <row r="494" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A494" s="13">
-        <v>44429</v>
+        <v>51369</v>
       </c>
       <c r="B494" s="14">
         <v>13</v>
@@ -52608,7 +52612,7 @@
     </row>
     <row r="495" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A495" s="13">
-        <v>44429</v>
+        <v>51369</v>
       </c>
       <c r="B495" s="14">
         <v>14</v>
@@ -52640,7 +52644,7 @@
     </row>
     <row r="496" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A496" s="13">
-        <v>44429</v>
+        <v>51369</v>
       </c>
       <c r="B496" s="14">
         <v>15</v>
@@ -52672,7 +52676,7 @@
     </row>
     <row r="497" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A497" s="13">
-        <v>44429</v>
+        <v>51369</v>
       </c>
       <c r="B497" s="14">
         <v>16</v>
@@ -52704,7 +52708,7 @@
     </row>
     <row r="498" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A498" s="13">
-        <v>44429</v>
+        <v>51369</v>
       </c>
       <c r="B498" s="14">
         <v>17</v>
@@ -52736,7 +52740,7 @@
     </row>
     <row r="499" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A499" s="13">
-        <v>44429</v>
+        <v>51369</v>
       </c>
       <c r="B499" s="14">
         <v>18</v>
@@ -52768,7 +52772,7 @@
     </row>
     <row r="500" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A500" s="13">
-        <v>44429</v>
+        <v>51369</v>
       </c>
       <c r="B500" s="14">
         <v>19</v>
@@ -52800,7 +52804,7 @@
     </row>
     <row r="501" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A501" s="13">
-        <v>44429</v>
+        <v>51369</v>
       </c>
       <c r="B501" s="14">
         <v>20</v>
@@ -52832,7 +52836,7 @@
     </row>
     <row r="502" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A502" s="13">
-        <v>44429</v>
+        <v>51369</v>
       </c>
       <c r="B502" s="14">
         <v>21</v>
@@ -52864,7 +52868,7 @@
     </row>
     <row r="503" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A503" s="13">
-        <v>44429</v>
+        <v>51369</v>
       </c>
       <c r="B503" s="14">
         <v>22</v>
@@ -52896,7 +52900,7 @@
     </row>
     <row r="504" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A504" s="13">
-        <v>44429</v>
+        <v>51369</v>
       </c>
       <c r="B504" s="14">
         <v>23</v>
@@ -52928,7 +52932,7 @@
     </row>
     <row r="505" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A505" s="13">
-        <v>44429</v>
+        <v>51369</v>
       </c>
       <c r="B505" s="14">
         <v>24</v>
@@ -52960,7 +52964,7 @@
     </row>
     <row r="506" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A506" s="13">
-        <v>44430</v>
+        <v>51370</v>
       </c>
       <c r="B506" s="14">
         <v>1</v>
@@ -52992,7 +52996,7 @@
     </row>
     <row r="507" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A507" s="13">
-        <v>44430</v>
+        <v>51370</v>
       </c>
       <c r="B507" s="14">
         <v>2</v>
@@ -53024,7 +53028,7 @@
     </row>
     <row r="508" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A508" s="13">
-        <v>44430</v>
+        <v>51370</v>
       </c>
       <c r="B508" s="14">
         <v>3</v>
@@ -53056,7 +53060,7 @@
     </row>
     <row r="509" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A509" s="13">
-        <v>44430</v>
+        <v>51370</v>
       </c>
       <c r="B509" s="14">
         <v>4</v>
@@ -53088,7 +53092,7 @@
     </row>
     <row r="510" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A510" s="13">
-        <v>44430</v>
+        <v>51370</v>
       </c>
       <c r="B510" s="14">
         <v>5</v>
@@ -53120,7 +53124,7 @@
     </row>
     <row r="511" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A511" s="13">
-        <v>44430</v>
+        <v>51370</v>
       </c>
       <c r="B511" s="14">
         <v>6</v>
@@ -53152,7 +53156,7 @@
     </row>
     <row r="512" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A512" s="13">
-        <v>44430</v>
+        <v>51370</v>
       </c>
       <c r="B512" s="14">
         <v>7</v>
@@ -53184,7 +53188,7 @@
     </row>
     <row r="513" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A513" s="13">
-        <v>44430</v>
+        <v>51370</v>
       </c>
       <c r="B513" s="14">
         <v>8</v>
@@ -53216,7 +53220,7 @@
     </row>
     <row r="514" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A514" s="13">
-        <v>44430</v>
+        <v>51370</v>
       </c>
       <c r="B514" s="14">
         <v>9</v>
@@ -53248,7 +53252,7 @@
     </row>
     <row r="515" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A515" s="13">
-        <v>44430</v>
+        <v>51370</v>
       </c>
       <c r="B515" s="14">
         <v>10</v>
@@ -53280,7 +53284,7 @@
     </row>
     <row r="516" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A516" s="13">
-        <v>44430</v>
+        <v>51370</v>
       </c>
       <c r="B516" s="14">
         <v>11</v>
@@ -53312,7 +53316,7 @@
     </row>
     <row r="517" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A517" s="13">
-        <v>44430</v>
+        <v>51370</v>
       </c>
       <c r="B517" s="14">
         <v>12</v>
@@ -53344,7 +53348,7 @@
     </row>
     <row r="518" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A518" s="13">
-        <v>44430</v>
+        <v>51370</v>
       </c>
       <c r="B518" s="14">
         <v>13</v>
@@ -53376,7 +53380,7 @@
     </row>
     <row r="519" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A519" s="13">
-        <v>44430</v>
+        <v>51370</v>
       </c>
       <c r="B519" s="14">
         <v>14</v>
@@ -53408,7 +53412,7 @@
     </row>
     <row r="520" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A520" s="13">
-        <v>44430</v>
+        <v>51370</v>
       </c>
       <c r="B520" s="14">
         <v>15</v>
@@ -53440,7 +53444,7 @@
     </row>
     <row r="521" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A521" s="13">
-        <v>44430</v>
+        <v>51370</v>
       </c>
       <c r="B521" s="14">
         <v>16</v>
@@ -53472,7 +53476,7 @@
     </row>
     <row r="522" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A522" s="13">
-        <v>44430</v>
+        <v>51370</v>
       </c>
       <c r="B522" s="14">
         <v>17</v>
@@ -53504,7 +53508,7 @@
     </row>
     <row r="523" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A523" s="13">
-        <v>44430</v>
+        <v>51370</v>
       </c>
       <c r="B523" s="14">
         <v>18</v>
@@ -53536,7 +53540,7 @@
     </row>
     <row r="524" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A524" s="13">
-        <v>44430</v>
+        <v>51370</v>
       </c>
       <c r="B524" s="14">
         <v>19</v>
@@ -53568,7 +53572,7 @@
     </row>
     <row r="525" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A525" s="13">
-        <v>44430</v>
+        <v>51370</v>
       </c>
       <c r="B525" s="14">
         <v>20</v>
@@ -53600,7 +53604,7 @@
     </row>
     <row r="526" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A526" s="13">
-        <v>44430</v>
+        <v>51370</v>
       </c>
       <c r="B526" s="14">
         <v>21</v>
@@ -53632,7 +53636,7 @@
     </row>
     <row r="527" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A527" s="13">
-        <v>44430</v>
+        <v>51370</v>
       </c>
       <c r="B527" s="14">
         <v>22</v>
@@ -53664,7 +53668,7 @@
     </row>
     <row r="528" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A528" s="13">
-        <v>44430</v>
+        <v>51370</v>
       </c>
       <c r="B528" s="14">
         <v>23</v>
@@ -53696,7 +53700,7 @@
     </row>
     <row r="529" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A529" s="13">
-        <v>44430</v>
+        <v>51370</v>
       </c>
       <c r="B529" s="14">
         <v>24</v>
@@ -53728,7 +53732,7 @@
     </row>
     <row r="530" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A530" s="13">
-        <v>44431</v>
+        <v>51371</v>
       </c>
       <c r="B530" s="14">
         <v>1</v>
@@ -53760,7 +53764,7 @@
     </row>
     <row r="531" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A531" s="13">
-        <v>44431</v>
+        <v>51371</v>
       </c>
       <c r="B531" s="14">
         <v>2</v>
@@ -53792,7 +53796,7 @@
     </row>
     <row r="532" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A532" s="13">
-        <v>44431</v>
+        <v>51371</v>
       </c>
       <c r="B532" s="14">
         <v>3</v>
@@ -53824,7 +53828,7 @@
     </row>
     <row r="533" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A533" s="13">
-        <v>44431</v>
+        <v>51371</v>
       </c>
       <c r="B533" s="14">
         <v>4</v>
@@ -53856,7 +53860,7 @@
     </row>
     <row r="534" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A534" s="13">
-        <v>44431</v>
+        <v>51371</v>
       </c>
       <c r="B534" s="14">
         <v>5</v>
@@ -53888,7 +53892,7 @@
     </row>
     <row r="535" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A535" s="13">
-        <v>44431</v>
+        <v>51371</v>
       </c>
       <c r="B535" s="14">
         <v>6</v>
@@ -53920,7 +53924,7 @@
     </row>
     <row r="536" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A536" s="13">
-        <v>44431</v>
+        <v>51371</v>
       </c>
       <c r="B536" s="14">
         <v>7</v>
@@ -53952,7 +53956,7 @@
     </row>
     <row r="537" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A537" s="13">
-        <v>44431</v>
+        <v>51371</v>
       </c>
       <c r="B537" s="14">
         <v>8</v>
@@ -53984,7 +53988,7 @@
     </row>
     <row r="538" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A538" s="13">
-        <v>44431</v>
+        <v>51371</v>
       </c>
       <c r="B538" s="14">
         <v>9</v>
@@ -54016,7 +54020,7 @@
     </row>
     <row r="539" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A539" s="13">
-        <v>44431</v>
+        <v>51371</v>
       </c>
       <c r="B539" s="14">
         <v>10</v>
@@ -54048,7 +54052,7 @@
     </row>
     <row r="540" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A540" s="13">
-        <v>44431</v>
+        <v>51371</v>
       </c>
       <c r="B540" s="14">
         <v>11</v>
@@ -54080,7 +54084,7 @@
     </row>
     <row r="541" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A541" s="13">
-        <v>44431</v>
+        <v>51371</v>
       </c>
       <c r="B541" s="14">
         <v>12</v>
@@ -54112,7 +54116,7 @@
     </row>
     <row r="542" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A542" s="13">
-        <v>44431</v>
+        <v>51371</v>
       </c>
       <c r="B542" s="14">
         <v>13</v>
@@ -54144,7 +54148,7 @@
     </row>
     <row r="543" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A543" s="13">
-        <v>44431</v>
+        <v>51371</v>
       </c>
       <c r="B543" s="14">
         <v>14</v>
@@ -54176,7 +54180,7 @@
     </row>
     <row r="544" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A544" s="13">
-        <v>44431</v>
+        <v>51371</v>
       </c>
       <c r="B544" s="14">
         <v>15</v>
@@ -54208,7 +54212,7 @@
     </row>
     <row r="545" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A545" s="13">
-        <v>44431</v>
+        <v>51371</v>
       </c>
       <c r="B545" s="14">
         <v>16</v>
@@ -54240,7 +54244,7 @@
     </row>
     <row r="546" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A546" s="13">
-        <v>44431</v>
+        <v>51371</v>
       </c>
       <c r="B546" s="14">
         <v>17</v>
@@ -54272,7 +54276,7 @@
     </row>
     <row r="547" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A547" s="13">
-        <v>44431</v>
+        <v>51371</v>
       </c>
       <c r="B547" s="14">
         <v>18</v>
@@ -54304,7 +54308,7 @@
     </row>
     <row r="548" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A548" s="13">
-        <v>44431</v>
+        <v>51371</v>
       </c>
       <c r="B548" s="14">
         <v>19</v>
@@ -54336,7 +54340,7 @@
     </row>
     <row r="549" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A549" s="13">
-        <v>44431</v>
+        <v>51371</v>
       </c>
       <c r="B549" s="14">
         <v>20</v>
@@ -54368,7 +54372,7 @@
     </row>
     <row r="550" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A550" s="13">
-        <v>44431</v>
+        <v>51371</v>
       </c>
       <c r="B550" s="14">
         <v>21</v>
@@ -54400,7 +54404,7 @@
     </row>
     <row r="551" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A551" s="13">
-        <v>44431</v>
+        <v>51371</v>
       </c>
       <c r="B551" s="14">
         <v>22</v>
@@ -54432,7 +54436,7 @@
     </row>
     <row r="552" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A552" s="13">
-        <v>44431</v>
+        <v>51371</v>
       </c>
       <c r="B552" s="14">
         <v>23</v>
@@ -54464,7 +54468,7 @@
     </row>
     <row r="553" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A553" s="13">
-        <v>44431</v>
+        <v>51371</v>
       </c>
       <c r="B553" s="14">
         <v>24</v>
@@ -54496,7 +54500,7 @@
     </row>
     <row r="554" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A554" s="13">
-        <v>44432</v>
+        <v>51372</v>
       </c>
       <c r="B554" s="14">
         <v>1</v>
@@ -54528,7 +54532,7 @@
     </row>
     <row r="555" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A555" s="13">
-        <v>44432</v>
+        <v>51372</v>
       </c>
       <c r="B555" s="14">
         <v>2</v>
@@ -54560,7 +54564,7 @@
     </row>
     <row r="556" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A556" s="13">
-        <v>44432</v>
+        <v>51372</v>
       </c>
       <c r="B556" s="14">
         <v>3</v>
@@ -54592,7 +54596,7 @@
     </row>
     <row r="557" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A557" s="13">
-        <v>44432</v>
+        <v>51372</v>
       </c>
       <c r="B557" s="14">
         <v>4</v>
@@ -54624,7 +54628,7 @@
     </row>
     <row r="558" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A558" s="13">
-        <v>44432</v>
+        <v>51372</v>
       </c>
       <c r="B558" s="14">
         <v>5</v>
@@ -54656,7 +54660,7 @@
     </row>
     <row r="559" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A559" s="13">
-        <v>44432</v>
+        <v>51372</v>
       </c>
       <c r="B559" s="14">
         <v>6</v>
@@ -54688,7 +54692,7 @@
     </row>
     <row r="560" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A560" s="13">
-        <v>44432</v>
+        <v>51372</v>
       </c>
       <c r="B560" s="14">
         <v>7</v>
@@ -54720,7 +54724,7 @@
     </row>
     <row r="561" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A561" s="13">
-        <v>44432</v>
+        <v>51372</v>
       </c>
       <c r="B561" s="14">
         <v>8</v>
@@ -54752,7 +54756,7 @@
     </row>
     <row r="562" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A562" s="13">
-        <v>44432</v>
+        <v>51372</v>
       </c>
       <c r="B562" s="14">
         <v>9</v>
@@ -54784,7 +54788,7 @@
     </row>
     <row r="563" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A563" s="13">
-        <v>44432</v>
+        <v>51372</v>
       </c>
       <c r="B563" s="14">
         <v>10</v>
@@ -54816,7 +54820,7 @@
     </row>
     <row r="564" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A564" s="13">
-        <v>44432</v>
+        <v>51372</v>
       </c>
       <c r="B564" s="14">
         <v>11</v>
@@ -54848,7 +54852,7 @@
     </row>
     <row r="565" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A565" s="13">
-        <v>44432</v>
+        <v>51372</v>
       </c>
       <c r="B565" s="14">
         <v>12</v>
@@ -54880,7 +54884,7 @@
     </row>
     <row r="566" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A566" s="13">
-        <v>44432</v>
+        <v>51372</v>
       </c>
       <c r="B566" s="14">
         <v>13</v>
@@ -54912,7 +54916,7 @@
     </row>
     <row r="567" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A567" s="13">
-        <v>44432</v>
+        <v>51372</v>
       </c>
       <c r="B567" s="14">
         <v>14</v>
@@ -54944,7 +54948,7 @@
     </row>
     <row r="568" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A568" s="13">
-        <v>44432</v>
+        <v>51372</v>
       </c>
       <c r="B568" s="14">
         <v>15</v>
@@ -54976,7 +54980,7 @@
     </row>
     <row r="569" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A569" s="13">
-        <v>44432</v>
+        <v>51372</v>
       </c>
       <c r="B569" s="14">
         <v>16</v>
@@ -55008,7 +55012,7 @@
     </row>
     <row r="570" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A570" s="13">
-        <v>44432</v>
+        <v>51372</v>
       </c>
       <c r="B570" s="14">
         <v>17</v>
@@ -55040,7 +55044,7 @@
     </row>
     <row r="571" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A571" s="13">
-        <v>44432</v>
+        <v>51372</v>
       </c>
       <c r="B571" s="14">
         <v>18</v>
@@ -55072,7 +55076,7 @@
     </row>
     <row r="572" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A572" s="13">
-        <v>44432</v>
+        <v>51372</v>
       </c>
       <c r="B572" s="14">
         <v>19</v>
@@ -55104,7 +55108,7 @@
     </row>
     <row r="573" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A573" s="13">
-        <v>44432</v>
+        <v>51372</v>
       </c>
       <c r="B573" s="14">
         <v>20</v>
@@ -55136,7 +55140,7 @@
     </row>
     <row r="574" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A574" s="13">
-        <v>44432</v>
+        <v>51372</v>
       </c>
       <c r="B574" s="14">
         <v>21</v>
@@ -55168,7 +55172,7 @@
     </row>
     <row r="575" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A575" s="13">
-        <v>44432</v>
+        <v>51372</v>
       </c>
       <c r="B575" s="14">
         <v>22</v>
@@ -55200,7 +55204,7 @@
     </row>
     <row r="576" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A576" s="13">
-        <v>44432</v>
+        <v>51372</v>
       </c>
       <c r="B576" s="14">
         <v>23</v>
@@ -55232,7 +55236,7 @@
     </row>
     <row r="577" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A577" s="13">
-        <v>44432</v>
+        <v>51372</v>
       </c>
       <c r="B577" s="14">
         <v>24</v>
@@ -55264,7 +55268,7 @@
     </row>
     <row r="578" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A578" s="13">
-        <v>44433</v>
+        <v>51373</v>
       </c>
       <c r="B578" s="14">
         <v>1</v>
@@ -55296,7 +55300,7 @@
     </row>
     <row r="579" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A579" s="13">
-        <v>44433</v>
+        <v>51373</v>
       </c>
       <c r="B579" s="14">
         <v>2</v>
@@ -55328,7 +55332,7 @@
     </row>
     <row r="580" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A580" s="13">
-        <v>44433</v>
+        <v>51373</v>
       </c>
       <c r="B580" s="14">
         <v>3</v>
@@ -55360,7 +55364,7 @@
     </row>
     <row r="581" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A581" s="13">
-        <v>44433</v>
+        <v>51373</v>
       </c>
       <c r="B581" s="14">
         <v>4</v>
@@ -55392,7 +55396,7 @@
     </row>
     <row r="582" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A582" s="13">
-        <v>44433</v>
+        <v>51373</v>
       </c>
       <c r="B582" s="14">
         <v>5</v>
@@ -55424,7 +55428,7 @@
     </row>
     <row r="583" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A583" s="13">
-        <v>44433</v>
+        <v>51373</v>
       </c>
       <c r="B583" s="14">
         <v>6</v>
@@ -55456,7 +55460,7 @@
     </row>
     <row r="584" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A584" s="13">
-        <v>44433</v>
+        <v>51373</v>
       </c>
       <c r="B584" s="14">
         <v>7</v>
@@ -55488,7 +55492,7 @@
     </row>
     <row r="585" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A585" s="13">
-        <v>44433</v>
+        <v>51373</v>
       </c>
       <c r="B585" s="14">
         <v>8</v>
@@ -55520,7 +55524,7 @@
     </row>
     <row r="586" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A586" s="13">
-        <v>44433</v>
+        <v>51373</v>
       </c>
       <c r="B586" s="14">
         <v>9</v>
@@ -55552,7 +55556,7 @@
     </row>
     <row r="587" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A587" s="13">
-        <v>44433</v>
+        <v>51373</v>
       </c>
       <c r="B587" s="14">
         <v>10</v>
@@ -55584,7 +55588,7 @@
     </row>
     <row r="588" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A588" s="13">
-        <v>44433</v>
+        <v>51373</v>
       </c>
       <c r="B588" s="14">
         <v>11</v>
@@ -55616,7 +55620,7 @@
     </row>
     <row r="589" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A589" s="13">
-        <v>44433</v>
+        <v>51373</v>
       </c>
       <c r="B589" s="14">
         <v>12</v>
@@ -55648,7 +55652,7 @@
     </row>
     <row r="590" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A590" s="13">
-        <v>44433</v>
+        <v>51373</v>
       </c>
       <c r="B590" s="14">
         <v>13</v>
@@ -55680,7 +55684,7 @@
     </row>
     <row r="591" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A591" s="13">
-        <v>44433</v>
+        <v>51373</v>
       </c>
       <c r="B591" s="14">
         <v>14</v>
@@ -55712,7 +55716,7 @@
     </row>
     <row r="592" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A592" s="13">
-        <v>44433</v>
+        <v>51373</v>
       </c>
       <c r="B592" s="14">
         <v>15</v>
@@ -55744,7 +55748,7 @@
     </row>
     <row r="593" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A593" s="13">
-        <v>44433</v>
+        <v>51373</v>
       </c>
       <c r="B593" s="14">
         <v>16</v>
@@ -55776,7 +55780,7 @@
     </row>
     <row r="594" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A594" s="13">
-        <v>44433</v>
+        <v>51373</v>
       </c>
       <c r="B594" s="14">
         <v>17</v>
@@ -55808,7 +55812,7 @@
     </row>
     <row r="595" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A595" s="13">
-        <v>44433</v>
+        <v>51373</v>
       </c>
       <c r="B595" s="14">
         <v>18</v>
@@ -55840,7 +55844,7 @@
     </row>
     <row r="596" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A596" s="13">
-        <v>44433</v>
+        <v>51373</v>
       </c>
       <c r="B596" s="14">
         <v>19</v>
@@ -55872,7 +55876,7 @@
     </row>
     <row r="597" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A597" s="13">
-        <v>44433</v>
+        <v>51373</v>
       </c>
       <c r="B597" s="14">
         <v>20</v>
@@ -55904,7 +55908,7 @@
     </row>
     <row r="598" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A598" s="13">
-        <v>44433</v>
+        <v>51373</v>
       </c>
       <c r="B598" s="14">
         <v>21</v>
@@ -55936,7 +55940,7 @@
     </row>
     <row r="599" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A599" s="13">
-        <v>44433</v>
+        <v>51373</v>
       </c>
       <c r="B599" s="14">
         <v>22</v>
@@ -55968,7 +55972,7 @@
     </row>
     <row r="600" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A600" s="13">
-        <v>44433</v>
+        <v>51373</v>
       </c>
       <c r="B600" s="14">
         <v>23</v>
@@ -56000,7 +56004,7 @@
     </row>
     <row r="601" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A601" s="13">
-        <v>44433</v>
+        <v>51373</v>
       </c>
       <c r="B601" s="14">
         <v>24</v>
@@ -56032,7 +56036,7 @@
     </row>
     <row r="602" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A602" s="13">
-        <v>44434</v>
+        <v>51374</v>
       </c>
       <c r="B602" s="14">
         <v>1</v>
@@ -56064,7 +56068,7 @@
     </row>
     <row r="603" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A603" s="13">
-        <v>44434</v>
+        <v>51374</v>
       </c>
       <c r="B603" s="14">
         <v>2</v>
@@ -56096,7 +56100,7 @@
     </row>
     <row r="604" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A604" s="13">
-        <v>44434</v>
+        <v>51374</v>
       </c>
       <c r="B604" s="14">
         <v>3</v>
@@ -56128,7 +56132,7 @@
     </row>
     <row r="605" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A605" s="13">
-        <v>44434</v>
+        <v>51374</v>
       </c>
       <c r="B605" s="14">
         <v>4</v>
@@ -56160,7 +56164,7 @@
     </row>
     <row r="606" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A606" s="13">
-        <v>44434</v>
+        <v>51374</v>
       </c>
       <c r="B606" s="14">
         <v>5</v>
@@ -56192,7 +56196,7 @@
     </row>
     <row r="607" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A607" s="13">
-        <v>44434</v>
+        <v>51374</v>
       </c>
       <c r="B607" s="14">
         <v>6</v>
@@ -56224,7 +56228,7 @@
     </row>
     <row r="608" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A608" s="13">
-        <v>44434</v>
+        <v>51374</v>
       </c>
       <c r="B608" s="14">
         <v>7</v>
@@ -56256,7 +56260,7 @@
     </row>
     <row r="609" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A609" s="13">
-        <v>44434</v>
+        <v>51374</v>
       </c>
       <c r="B609" s="14">
         <v>8</v>
@@ -56288,7 +56292,7 @@
     </row>
     <row r="610" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A610" s="13">
-        <v>44434</v>
+        <v>51374</v>
       </c>
       <c r="B610" s="14">
         <v>9</v>
@@ -56320,7 +56324,7 @@
     </row>
     <row r="611" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A611" s="13">
-        <v>44434</v>
+        <v>51374</v>
       </c>
       <c r="B611" s="14">
         <v>10</v>
@@ -56352,7 +56356,7 @@
     </row>
     <row r="612" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A612" s="13">
-        <v>44434</v>
+        <v>51374</v>
       </c>
       <c r="B612" s="14">
         <v>11</v>
@@ -56384,7 +56388,7 @@
     </row>
     <row r="613" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A613" s="13">
-        <v>44434</v>
+        <v>51374</v>
       </c>
       <c r="B613" s="14">
         <v>12</v>
@@ -56416,7 +56420,7 @@
     </row>
     <row r="614" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A614" s="13">
-        <v>44434</v>
+        <v>51374</v>
       </c>
       <c r="B614" s="14">
         <v>13</v>
@@ -56448,7 +56452,7 @@
     </row>
     <row r="615" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A615" s="13">
-        <v>44434</v>
+        <v>51374</v>
       </c>
       <c r="B615" s="14">
         <v>14</v>
@@ -56480,7 +56484,7 @@
     </row>
     <row r="616" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A616" s="13">
-        <v>44434</v>
+        <v>51374</v>
       </c>
       <c r="B616" s="14">
         <v>15</v>
@@ -56512,7 +56516,7 @@
     </row>
     <row r="617" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A617" s="13">
-        <v>44434</v>
+        <v>51374</v>
       </c>
       <c r="B617" s="14">
         <v>16</v>
@@ -56544,7 +56548,7 @@
     </row>
     <row r="618" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A618" s="13">
-        <v>44434</v>
+        <v>51374</v>
       </c>
       <c r="B618" s="14">
         <v>17</v>
@@ -56576,7 +56580,7 @@
     </row>
     <row r="619" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A619" s="13">
-        <v>44434</v>
+        <v>51374</v>
       </c>
       <c r="B619" s="14">
         <v>18</v>
@@ -56608,7 +56612,7 @@
     </row>
     <row r="620" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A620" s="13">
-        <v>44434</v>
+        <v>51374</v>
       </c>
       <c r="B620" s="14">
         <v>19</v>
@@ -56640,7 +56644,7 @@
     </row>
     <row r="621" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A621" s="13">
-        <v>44434</v>
+        <v>51374</v>
       </c>
       <c r="B621" s="14">
         <v>20</v>
@@ -56672,7 +56676,7 @@
     </row>
     <row r="622" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A622" s="13">
-        <v>44434</v>
+        <v>51374</v>
       </c>
       <c r="B622" s="14">
         <v>21</v>
@@ -56704,7 +56708,7 @@
     </row>
     <row r="623" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A623" s="13">
-        <v>44434</v>
+        <v>51374</v>
       </c>
       <c r="B623" s="14">
         <v>22</v>
@@ -56736,7 +56740,7 @@
     </row>
     <row r="624" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A624" s="13">
-        <v>44434</v>
+        <v>51374</v>
       </c>
       <c r="B624" s="14">
         <v>23</v>
@@ -56768,7 +56772,7 @@
     </row>
     <row r="625" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A625" s="13">
-        <v>44434</v>
+        <v>51374</v>
       </c>
       <c r="B625" s="14">
         <v>24</v>
@@ -56800,7 +56804,7 @@
     </row>
     <row r="626" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A626" s="13">
-        <v>44435</v>
+        <v>51375</v>
       </c>
       <c r="B626" s="14">
         <v>1</v>
@@ -56832,7 +56836,7 @@
     </row>
     <row r="627" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A627" s="13">
-        <v>44435</v>
+        <v>51375</v>
       </c>
       <c r="B627" s="14">
         <v>2</v>
@@ -56864,7 +56868,7 @@
     </row>
     <row r="628" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A628" s="13">
-        <v>44435</v>
+        <v>51375</v>
       </c>
       <c r="B628" s="14">
         <v>3</v>
@@ -56896,7 +56900,7 @@
     </row>
     <row r="629" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A629" s="13">
-        <v>44435</v>
+        <v>51375</v>
       </c>
       <c r="B629" s="14">
         <v>4</v>
@@ -56928,7 +56932,7 @@
     </row>
     <row r="630" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A630" s="13">
-        <v>44435</v>
+        <v>51375</v>
       </c>
       <c r="B630" s="14">
         <v>5</v>
@@ -56960,7 +56964,7 @@
     </row>
     <row r="631" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A631" s="13">
-        <v>44435</v>
+        <v>51375</v>
       </c>
       <c r="B631" s="14">
         <v>6</v>
@@ -56992,7 +56996,7 @@
     </row>
     <row r="632" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A632" s="13">
-        <v>44435</v>
+        <v>51375</v>
       </c>
       <c r="B632" s="14">
         <v>7</v>
@@ -57024,7 +57028,7 @@
     </row>
     <row r="633" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A633" s="13">
-        <v>44435</v>
+        <v>51375</v>
       </c>
       <c r="B633" s="14">
         <v>8</v>
@@ -57056,7 +57060,7 @@
     </row>
     <row r="634" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A634" s="13">
-        <v>44435</v>
+        <v>51375</v>
       </c>
       <c r="B634" s="14">
         <v>9</v>
@@ -57088,7 +57092,7 @@
     </row>
     <row r="635" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A635" s="13">
-        <v>44435</v>
+        <v>51375</v>
       </c>
       <c r="B635" s="14">
         <v>10</v>
@@ -57120,7 +57124,7 @@
     </row>
     <row r="636" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A636" s="13">
-        <v>44435</v>
+        <v>51375</v>
       </c>
       <c r="B636" s="14">
         <v>11</v>
@@ -57152,7 +57156,7 @@
     </row>
     <row r="637" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A637" s="13">
-        <v>44435</v>
+        <v>51375</v>
       </c>
       <c r="B637" s="14">
         <v>12</v>
@@ -57184,7 +57188,7 @@
     </row>
     <row r="638" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A638" s="13">
-        <v>44435</v>
+        <v>51375</v>
       </c>
       <c r="B638" s="14">
         <v>13</v>
@@ -57216,7 +57220,7 @@
     </row>
     <row r="639" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A639" s="13">
-        <v>44435</v>
+        <v>51375</v>
       </c>
       <c r="B639" s="14">
         <v>14</v>
@@ -57248,7 +57252,7 @@
     </row>
     <row r="640" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A640" s="13">
-        <v>44435</v>
+        <v>51375</v>
       </c>
       <c r="B640" s="14">
         <v>15</v>
@@ -57280,7 +57284,7 @@
     </row>
     <row r="641" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A641" s="13">
-        <v>44435</v>
+        <v>51375</v>
       </c>
       <c r="B641" s="14">
         <v>16</v>
@@ -57312,7 +57316,7 @@
     </row>
     <row r="642" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A642" s="13">
-        <v>44435</v>
+        <v>51375</v>
       </c>
       <c r="B642" s="14">
         <v>17</v>
@@ -57344,7 +57348,7 @@
     </row>
     <row r="643" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A643" s="13">
-        <v>44435</v>
+        <v>51375</v>
       </c>
       <c r="B643" s="14">
         <v>18</v>
@@ -57376,7 +57380,7 @@
     </row>
     <row r="644" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A644" s="13">
-        <v>44435</v>
+        <v>51375</v>
       </c>
       <c r="B644" s="14">
         <v>19</v>
@@ -57408,7 +57412,7 @@
     </row>
     <row r="645" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A645" s="13">
-        <v>44435</v>
+        <v>51375</v>
       </c>
       <c r="B645" s="14">
         <v>20</v>
@@ -57440,7 +57444,7 @@
     </row>
     <row r="646" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A646" s="13">
-        <v>44435</v>
+        <v>51375</v>
       </c>
       <c r="B646" s="14">
         <v>21</v>
@@ -57472,7 +57476,7 @@
     </row>
     <row r="647" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A647" s="13">
-        <v>44435</v>
+        <v>51375</v>
       </c>
       <c r="B647" s="14">
         <v>22</v>
@@ -57504,7 +57508,7 @@
     </row>
     <row r="648" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A648" s="13">
-        <v>44435</v>
+        <v>51375</v>
       </c>
       <c r="B648" s="14">
         <v>23</v>
@@ -57536,7 +57540,7 @@
     </row>
     <row r="649" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A649" s="13">
-        <v>44435</v>
+        <v>51375</v>
       </c>
       <c r="B649" s="14">
         <v>24</v>
@@ -57568,7 +57572,7 @@
     </row>
     <row r="650" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A650" s="13">
-        <v>44436</v>
+        <v>51376</v>
       </c>
       <c r="B650" s="14">
         <v>1</v>
@@ -57600,7 +57604,7 @@
     </row>
     <row r="651" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A651" s="13">
-        <v>44436</v>
+        <v>51376</v>
       </c>
       <c r="B651" s="14">
         <v>2</v>
@@ -57632,7 +57636,7 @@
     </row>
     <row r="652" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A652" s="13">
-        <v>44436</v>
+        <v>51376</v>
       </c>
       <c r="B652" s="14">
         <v>3</v>
@@ -57664,7 +57668,7 @@
     </row>
     <row r="653" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A653" s="13">
-        <v>44436</v>
+        <v>51376</v>
       </c>
       <c r="B653" s="14">
         <v>4</v>
@@ -57696,7 +57700,7 @@
     </row>
     <row r="654" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A654" s="13">
-        <v>44436</v>
+        <v>51376</v>
       </c>
       <c r="B654" s="14">
         <v>5</v>
@@ -57728,7 +57732,7 @@
     </row>
     <row r="655" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A655" s="13">
-        <v>44436</v>
+        <v>51376</v>
       </c>
       <c r="B655" s="14">
         <v>6</v>
@@ -57760,7 +57764,7 @@
     </row>
     <row r="656" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A656" s="13">
-        <v>44436</v>
+        <v>51376</v>
       </c>
       <c r="B656" s="14">
         <v>7</v>
@@ -57792,7 +57796,7 @@
     </row>
     <row r="657" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A657" s="13">
-        <v>44436</v>
+        <v>51376</v>
       </c>
       <c r="B657" s="14">
         <v>8</v>
@@ -57824,7 +57828,7 @@
     </row>
     <row r="658" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A658" s="13">
-        <v>44436</v>
+        <v>51376</v>
       </c>
       <c r="B658" s="14">
         <v>9</v>
@@ -57856,7 +57860,7 @@
     </row>
     <row r="659" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A659" s="13">
-        <v>44436</v>
+        <v>51376</v>
       </c>
       <c r="B659" s="14">
         <v>10</v>
@@ -57888,7 +57892,7 @@
     </row>
     <row r="660" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A660" s="13">
-        <v>44436</v>
+        <v>51376</v>
       </c>
       <c r="B660" s="14">
         <v>11</v>
@@ -57920,7 +57924,7 @@
     </row>
     <row r="661" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A661" s="13">
-        <v>44436</v>
+        <v>51376</v>
       </c>
       <c r="B661" s="14">
         <v>12</v>
@@ -57952,7 +57956,7 @@
     </row>
     <row r="662" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A662" s="13">
-        <v>44436</v>
+        <v>51376</v>
       </c>
       <c r="B662" s="14">
         <v>13</v>
@@ -57984,7 +57988,7 @@
     </row>
     <row r="663" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A663" s="13">
-        <v>44436</v>
+        <v>51376</v>
       </c>
       <c r="B663" s="14">
         <v>14</v>
@@ -58016,7 +58020,7 @@
     </row>
     <row r="664" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A664" s="13">
-        <v>44436</v>
+        <v>51376</v>
       </c>
       <c r="B664" s="14">
         <v>15</v>
@@ -58048,7 +58052,7 @@
     </row>
     <row r="665" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A665" s="13">
-        <v>44436</v>
+        <v>51376</v>
       </c>
       <c r="B665" s="14">
         <v>16</v>
@@ -58080,7 +58084,7 @@
     </row>
     <row r="666" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A666" s="13">
-        <v>44436</v>
+        <v>51376</v>
       </c>
       <c r="B666" s="14">
         <v>17</v>
@@ -58112,7 +58116,7 @@
     </row>
     <row r="667" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A667" s="13">
-        <v>44436</v>
+        <v>51376</v>
       </c>
       <c r="B667" s="14">
         <v>18</v>
@@ -58144,7 +58148,7 @@
     </row>
     <row r="668" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A668" s="13">
-        <v>44436</v>
+        <v>51376</v>
       </c>
       <c r="B668" s="14">
         <v>19</v>
@@ -58176,7 +58180,7 @@
     </row>
     <row r="669" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A669" s="13">
-        <v>44436</v>
+        <v>51376</v>
       </c>
       <c r="B669" s="14">
         <v>20</v>
@@ -58208,7 +58212,7 @@
     </row>
     <row r="670" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A670" s="13">
-        <v>44436</v>
+        <v>51376</v>
       </c>
       <c r="B670" s="14">
         <v>21</v>
@@ -58240,7 +58244,7 @@
     </row>
     <row r="671" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A671" s="13">
-        <v>44436</v>
+        <v>51376</v>
       </c>
       <c r="B671" s="14">
         <v>22</v>
@@ -58272,7 +58276,7 @@
     </row>
     <row r="672" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A672" s="13">
-        <v>44436</v>
+        <v>51376</v>
       </c>
       <c r="B672" s="14">
         <v>23</v>
@@ -58304,7 +58308,7 @@
     </row>
     <row r="673" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A673" s="13">
-        <v>44436</v>
+        <v>51376</v>
       </c>
       <c r="B673" s="14">
         <v>24</v>
@@ -58336,7 +58340,7 @@
     </row>
     <row r="674" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A674" s="13">
-        <v>44437</v>
+        <v>51377</v>
       </c>
       <c r="B674" s="14">
         <v>1</v>
@@ -58368,7 +58372,7 @@
     </row>
     <row r="675" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A675" s="13">
-        <v>44437</v>
+        <v>51377</v>
       </c>
       <c r="B675" s="14">
         <v>2</v>
@@ -58400,7 +58404,7 @@
     </row>
     <row r="676" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A676" s="13">
-        <v>44437</v>
+        <v>51377</v>
       </c>
       <c r="B676" s="14">
         <v>3</v>
@@ -58432,7 +58436,7 @@
     </row>
     <row r="677" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A677" s="13">
-        <v>44437</v>
+        <v>51377</v>
       </c>
       <c r="B677" s="14">
         <v>4</v>
@@ -58464,7 +58468,7 @@
     </row>
     <row r="678" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A678" s="13">
-        <v>44437</v>
+        <v>51377</v>
       </c>
       <c r="B678" s="14">
         <v>5</v>
@@ -58496,7 +58500,7 @@
     </row>
     <row r="679" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A679" s="13">
-        <v>44437</v>
+        <v>51377</v>
       </c>
       <c r="B679" s="14">
         <v>6</v>
@@ -58528,7 +58532,7 @@
     </row>
     <row r="680" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A680" s="13">
-        <v>44437</v>
+        <v>51377</v>
       </c>
       <c r="B680" s="14">
         <v>7</v>
@@ -58560,7 +58564,7 @@
     </row>
     <row r="681" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A681" s="13">
-        <v>44437</v>
+        <v>51377</v>
       </c>
       <c r="B681" s="14">
         <v>8</v>
@@ -58592,7 +58596,7 @@
     </row>
     <row r="682" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A682" s="13">
-        <v>44437</v>
+        <v>51377</v>
       </c>
       <c r="B682" s="14">
         <v>9</v>
@@ -58624,7 +58628,7 @@
     </row>
     <row r="683" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A683" s="13">
-        <v>44437</v>
+        <v>51377</v>
       </c>
       <c r="B683" s="14">
         <v>10</v>
@@ -58656,7 +58660,7 @@
     </row>
     <row r="684" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A684" s="13">
-        <v>44437</v>
+        <v>51377</v>
       </c>
       <c r="B684" s="14">
         <v>11</v>
@@ -58688,7 +58692,7 @@
     </row>
     <row r="685" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A685" s="13">
-        <v>44437</v>
+        <v>51377</v>
       </c>
       <c r="B685" s="14">
         <v>12</v>
@@ -58720,7 +58724,7 @@
     </row>
     <row r="686" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A686" s="13">
-        <v>44437</v>
+        <v>51377</v>
       </c>
       <c r="B686" s="14">
         <v>13</v>
@@ -58752,7 +58756,7 @@
     </row>
     <row r="687" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A687" s="13">
-        <v>44437</v>
+        <v>51377</v>
       </c>
       <c r="B687" s="14">
         <v>14</v>
@@ -58784,7 +58788,7 @@
     </row>
     <row r="688" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A688" s="13">
-        <v>44437</v>
+        <v>51377</v>
       </c>
       <c r="B688" s="14">
         <v>15</v>
@@ -58816,7 +58820,7 @@
     </row>
     <row r="689" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A689" s="13">
-        <v>44437</v>
+        <v>51377</v>
       </c>
       <c r="B689" s="14">
         <v>16</v>
@@ -58848,7 +58852,7 @@
     </row>
     <row r="690" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A690" s="13">
-        <v>44437</v>
+        <v>51377</v>
       </c>
       <c r="B690" s="14">
         <v>17</v>
@@ -58880,7 +58884,7 @@
     </row>
     <row r="691" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A691" s="13">
-        <v>44437</v>
+        <v>51377</v>
       </c>
       <c r="B691" s="14">
         <v>18</v>
@@ -58912,7 +58916,7 @@
     </row>
     <row r="692" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A692" s="13">
-        <v>44437</v>
+        <v>51377</v>
       </c>
       <c r="B692" s="14">
         <v>19</v>
@@ -58944,7 +58948,7 @@
     </row>
     <row r="693" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A693" s="13">
-        <v>44437</v>
+        <v>51377</v>
       </c>
       <c r="B693" s="14">
         <v>20</v>
@@ -58976,7 +58980,7 @@
     </row>
     <row r="694" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A694" s="13">
-        <v>44437</v>
+        <v>51377</v>
       </c>
       <c r="B694" s="14">
         <v>21</v>
@@ -59008,7 +59012,7 @@
     </row>
     <row r="695" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A695" s="13">
-        <v>44437</v>
+        <v>51377</v>
       </c>
       <c r="B695" s="14">
         <v>22</v>
@@ -59040,7 +59044,7 @@
     </row>
     <row r="696" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A696" s="13">
-        <v>44437</v>
+        <v>51377</v>
       </c>
       <c r="B696" s="14">
         <v>23</v>
@@ -59072,7 +59076,7 @@
     </row>
     <row r="697" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A697" s="13">
-        <v>44437</v>
+        <v>51377</v>
       </c>
       <c r="B697" s="14">
         <v>24</v>
@@ -59104,7 +59108,7 @@
     </row>
     <row r="698" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A698" s="13">
-        <v>44438</v>
+        <v>51378</v>
       </c>
       <c r="B698" s="14">
         <v>1</v>
@@ -59136,7 +59140,7 @@
     </row>
     <row r="699" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A699" s="13">
-        <v>44438</v>
+        <v>51378</v>
       </c>
       <c r="B699" s="14">
         <v>2</v>
@@ -59168,7 +59172,7 @@
     </row>
     <row r="700" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A700" s="13">
-        <v>44438</v>
+        <v>51378</v>
       </c>
       <c r="B700" s="14">
         <v>3</v>
@@ -59200,7 +59204,7 @@
     </row>
     <row r="701" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A701" s="13">
-        <v>44438</v>
+        <v>51378</v>
       </c>
       <c r="B701" s="14">
         <v>4</v>
@@ -59232,7 +59236,7 @@
     </row>
     <row r="702" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A702" s="13">
-        <v>44438</v>
+        <v>51378</v>
       </c>
       <c r="B702" s="14">
         <v>5</v>
@@ -59264,7 +59268,7 @@
     </row>
     <row r="703" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A703" s="13">
-        <v>44438</v>
+        <v>51378</v>
       </c>
       <c r="B703" s="14">
         <v>6</v>
@@ -59296,7 +59300,7 @@
     </row>
     <row r="704" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A704" s="13">
-        <v>44438</v>
+        <v>51378</v>
       </c>
       <c r="B704" s="14">
         <v>7</v>
@@ -59328,7 +59332,7 @@
     </row>
     <row r="705" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A705" s="13">
-        <v>44438</v>
+        <v>51378</v>
       </c>
       <c r="B705" s="14">
         <v>8</v>
@@ -59360,7 +59364,7 @@
     </row>
     <row r="706" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A706" s="13">
-        <v>44438</v>
+        <v>51378</v>
       </c>
       <c r="B706" s="14">
         <v>9</v>
@@ -59392,7 +59396,7 @@
     </row>
     <row r="707" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A707" s="13">
-        <v>44438</v>
+        <v>51378</v>
       </c>
       <c r="B707" s="14">
         <v>10</v>
@@ -59424,7 +59428,7 @@
     </row>
     <row r="708" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A708" s="13">
-        <v>44438</v>
+        <v>51378</v>
       </c>
       <c r="B708" s="14">
         <v>11</v>
@@ -59456,7 +59460,7 @@
     </row>
     <row r="709" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A709" s="13">
-        <v>44438</v>
+        <v>51378</v>
       </c>
       <c r="B709" s="14">
         <v>12</v>
@@ -59488,7 +59492,7 @@
     </row>
     <row r="710" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A710" s="13">
-        <v>44438</v>
+        <v>51378</v>
       </c>
       <c r="B710" s="14">
         <v>13</v>
@@ -59520,7 +59524,7 @@
     </row>
     <row r="711" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A711" s="13">
-        <v>44438</v>
+        <v>51378</v>
       </c>
       <c r="B711" s="14">
         <v>14</v>
@@ -59552,7 +59556,7 @@
     </row>
     <row r="712" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A712" s="13">
-        <v>44438</v>
+        <v>51378</v>
       </c>
       <c r="B712" s="14">
         <v>15</v>
@@ -59584,7 +59588,7 @@
     </row>
     <row r="713" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A713" s="13">
-        <v>44438</v>
+        <v>51378</v>
       </c>
       <c r="B713" s="14">
         <v>16</v>
@@ -59616,7 +59620,7 @@
     </row>
     <row r="714" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A714" s="13">
-        <v>44438</v>
+        <v>51378</v>
       </c>
       <c r="B714" s="14">
         <v>17</v>
@@ -59648,7 +59652,7 @@
     </row>
     <row r="715" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A715" s="13">
-        <v>44438</v>
+        <v>51378</v>
       </c>
       <c r="B715" s="14">
         <v>18</v>
@@ -59680,7 +59684,7 @@
     </row>
     <row r="716" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A716" s="13">
-        <v>44438</v>
+        <v>51378</v>
       </c>
       <c r="B716" s="14">
         <v>19</v>
@@ -59712,7 +59716,7 @@
     </row>
     <row r="717" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A717" s="13">
-        <v>44438</v>
+        <v>51378</v>
       </c>
       <c r="B717" s="14">
         <v>20</v>
@@ -59744,7 +59748,7 @@
     </row>
     <row r="718" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A718" s="13">
-        <v>44438</v>
+        <v>51378</v>
       </c>
       <c r="B718" s="14">
         <v>21</v>
@@ -59776,7 +59780,7 @@
     </row>
     <row r="719" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A719" s="13">
-        <v>44438</v>
+        <v>51378</v>
       </c>
       <c r="B719" s="14">
         <v>22</v>
@@ -59808,7 +59812,7 @@
     </row>
     <row r="720" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A720" s="13">
-        <v>44438</v>
+        <v>51378</v>
       </c>
       <c r="B720" s="14">
         <v>23</v>
@@ -59840,7 +59844,7 @@
     </row>
     <row r="721" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A721" s="13">
-        <v>44438</v>
+        <v>51378</v>
       </c>
       <c r="B721" s="14">
         <v>24</v>
@@ -59872,7 +59876,7 @@
     </row>
     <row r="722" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A722" s="13">
-        <v>44439</v>
+        <v>51379</v>
       </c>
       <c r="B722" s="14">
         <v>1</v>
@@ -59904,7 +59908,7 @@
     </row>
     <row r="723" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A723" s="13">
-        <v>44439</v>
+        <v>51379</v>
       </c>
       <c r="B723" s="14">
         <v>2</v>
@@ -59936,7 +59940,7 @@
     </row>
     <row r="724" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A724" s="13">
-        <v>44439</v>
+        <v>51379</v>
       </c>
       <c r="B724" s="14">
         <v>3</v>
@@ -59968,7 +59972,7 @@
     </row>
     <row r="725" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A725" s="13">
-        <v>44439</v>
+        <v>51379</v>
       </c>
       <c r="B725" s="14">
         <v>4</v>
@@ -60000,7 +60004,7 @@
     </row>
     <row r="726" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A726" s="13">
-        <v>44439</v>
+        <v>51379</v>
       </c>
       <c r="B726" s="14">
         <v>5</v>
@@ -60032,7 +60036,7 @@
     </row>
     <row r="727" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A727" s="13">
-        <v>44439</v>
+        <v>51379</v>
       </c>
       <c r="B727" s="14">
         <v>6</v>
@@ -60064,7 +60068,7 @@
     </row>
     <row r="728" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A728" s="13">
-        <v>44439</v>
+        <v>51379</v>
       </c>
       <c r="B728" s="14">
         <v>7</v>
@@ -60096,7 +60100,7 @@
     </row>
     <row r="729" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A729" s="13">
-        <v>44439</v>
+        <v>51379</v>
       </c>
       <c r="B729" s="14">
         <v>8</v>
@@ -60128,7 +60132,7 @@
     </row>
     <row r="730" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A730" s="13">
-        <v>44439</v>
+        <v>51379</v>
       </c>
       <c r="B730" s="14">
         <v>9</v>
@@ -60160,7 +60164,7 @@
     </row>
     <row r="731" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A731" s="13">
-        <v>44439</v>
+        <v>51379</v>
       </c>
       <c r="B731" s="14">
         <v>10</v>
@@ -60192,7 +60196,7 @@
     </row>
     <row r="732" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A732" s="13">
-        <v>44439</v>
+        <v>51379</v>
       </c>
       <c r="B732" s="14">
         <v>11</v>
@@ -60224,7 +60228,7 @@
     </row>
     <row r="733" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A733" s="13">
-        <v>44439</v>
+        <v>51379</v>
       </c>
       <c r="B733" s="14">
         <v>12</v>
@@ -60256,7 +60260,7 @@
     </row>
     <row r="734" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A734" s="13">
-        <v>44439</v>
+        <v>51379</v>
       </c>
       <c r="B734" s="14">
         <v>13</v>
@@ -60288,7 +60292,7 @@
     </row>
     <row r="735" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A735" s="13">
-        <v>44439</v>
+        <v>51379</v>
       </c>
       <c r="B735" s="14">
         <v>14</v>
@@ -60320,7 +60324,7 @@
     </row>
     <row r="736" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A736" s="13">
-        <v>44439</v>
+        <v>51379</v>
       </c>
       <c r="B736" s="14">
         <v>15</v>
@@ -60352,7 +60356,7 @@
     </row>
     <row r="737" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A737" s="13">
-        <v>44439</v>
+        <v>51379</v>
       </c>
       <c r="B737" s="14">
         <v>16</v>
@@ -60384,7 +60388,7 @@
     </row>
     <row r="738" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A738" s="13">
-        <v>44439</v>
+        <v>51379</v>
       </c>
       <c r="B738" s="14">
         <v>17</v>
@@ -60416,7 +60420,7 @@
     </row>
     <row r="739" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A739" s="13">
-        <v>44439</v>
+        <v>51379</v>
       </c>
       <c r="B739" s="14">
         <v>18</v>
@@ -60448,7 +60452,7 @@
     </row>
     <row r="740" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A740" s="13">
-        <v>44439</v>
+        <v>51379</v>
       </c>
       <c r="B740" s="14">
         <v>19</v>
@@ -60480,7 +60484,7 @@
     </row>
     <row r="741" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A741" s="13">
-        <v>44439</v>
+        <v>51379</v>
       </c>
       <c r="B741" s="14">
         <v>20</v>
@@ -60512,7 +60516,7 @@
     </row>
     <row r="742" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A742" s="13">
-        <v>44439</v>
+        <v>51379</v>
       </c>
       <c r="B742" s="14">
         <v>21</v>
@@ -60544,7 +60548,7 @@
     </row>
     <row r="743" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A743" s="13">
-        <v>44439</v>
+        <v>51379</v>
       </c>
       <c r="B743" s="14">
         <v>22</v>
@@ -60576,7 +60580,7 @@
     </row>
     <row r="744" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A744" s="13">
-        <v>44439</v>
+        <v>51379</v>
       </c>
       <c r="B744" s="14">
         <v>23</v>
@@ -60608,7 +60612,7 @@
     </row>
     <row r="745" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A745" s="13">
-        <v>44439</v>
+        <v>51379</v>
       </c>
       <c r="B745" s="14">
         <v>24</v>
